--- a/software/3D-CMCC-Forest-Model/tables/CO2_mod_assimilation.xlsx
+++ b/software/3D-CMCC-Forest-Model/tables/CO2_mod_assimilation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="9270" windowHeight="3615"/>
@@ -302,6 +302,465 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Fco2 8.5'!$D$2:$D$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>310.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>311.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>311.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>311.92500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>312.42500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>313.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>314.22500000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>314.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>315.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>316.27300000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>317.07499999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>317.79500000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>318.39800000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>318.92500000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>319.64800000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320.64800000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>321.60500000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>322.63499999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>323.90300000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>324.98500000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>325.85500000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>327.14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>328.678</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>329.74299999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>330.58499999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>331.74799999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>333.27300000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>334.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>336.52499999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>338.36</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>339.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>340.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>342.19799999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>343.78300000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>345.28300000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>346.798</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>348.64499999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>350.738</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>352.488</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>353.85500000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>355.01799999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>355.88499999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>356.77800000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>358.12799999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>359.83800000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>361.46300000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>363.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>365.32299999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>367.34800000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>368.86500000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>370.46800000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>372.52300000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>374.76</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>376.81299999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>378.81299999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>380.82799999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>382.77800000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>384.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>387.012</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>389.32400000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>391.63799999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>394.00900000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>396.464</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>399.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>401.62799999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>404.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>407.096</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>409.92700000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>412.822</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>415.78</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>418.79599999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>421.86399999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>424.995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>428.197</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>431.47500000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>434.82600000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>438.245</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>441.721</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>445.25099999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>448.83499999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>452.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>456.17700000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>459.964</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>463.85199999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>467.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>471.96</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>476.18200000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>480.50799999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>484.92700000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>489.435</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>494.03199999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>498.73</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>503.53</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>508.43299999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>513.45600000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>518.61099999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>523.9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>529.32399999999996</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>534.875</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>540.54300000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>546.322</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>552.21199999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>558.21199999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>564.31299999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>570.51700000000005</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>576.84299999999996</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>583.30499999999995</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>589.90499999999997</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>596.64700000000005</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>603.52</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>610.51700000000005</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>617.60500000000002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>624.76400000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>631.995</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>639.29100000000005</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>646.65300000000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>654.09799999999996</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>661.64499999999998</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>669.30499999999995</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>677.07799999999997</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>684.95399999999995</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>692.90200000000004</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>700.89400000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>708.93200000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>717.01499999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>725.13599999999997</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>733.30700000000002</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>741.524</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>749.80499999999995</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>758.18200000000002</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>766.64499999999998</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>775.17399999999998</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>783.75099999999998</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>792.36599999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>801.01900000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>809.71500000000003</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>818.42200000000003</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>827.15700000000004</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>835.95600000000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>844.80499999999995</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>853.72500000000002</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>862.726</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>871.77700000000004</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>880.86400000000003</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>889.98199999999997</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>899.12400000000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>908.28899999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>917.471</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>926.66499999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Fco2 8.5'!$U$2:$U$151</c:f>
@@ -763,24 +1222,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="119845632"/>
-        <c:axId val="119847168"/>
+        <c:axId val="138773248"/>
+        <c:axId val="138775168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119845632"/>
+        <c:axId val="138773248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119847168"/>
+        <c:crossAx val="138775168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119847168"/>
+        <c:axId val="138775168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,7 +1248,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119845632"/>
+        <c:crossAx val="138773248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -801,7 +1261,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4568,31 +5028,31 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="120932992"/>
-        <c:axId val="120951168"/>
+        <c:axId val="142141312"/>
+        <c:axId val="142142848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120932992"/>
+        <c:axId val="142141312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120951168"/>
+        <c:crossAx val="142142848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120951168"/>
+        <c:axId val="142142848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120932992"/>
+        <c:crossAx val="142141312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4605,7 +5065,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4644,8 +5104,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.3085739282589702E-2"/>
-          <c:y val="0.15776647710702846"/>
-          <c:w val="0.6831920384951885"/>
+          <c:y val="0.15776647710702851"/>
+          <c:w val="0.68319203849518872"/>
           <c:h val="0.68886956838728497"/>
         </c:manualLayout>
       </c:layout>
@@ -7300,24 +7760,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="132405120"/>
-        <c:axId val="132406656"/>
+        <c:axId val="193635456"/>
+        <c:axId val="193636992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132405120"/>
+        <c:axId val="193635456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132406656"/>
+        <c:crossAx val="193636992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132406656"/>
+        <c:axId val="193636992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
@@ -7325,7 +7785,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132405120"/>
+        <c:crossAx val="193635456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7338,7 +7798,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10028,31 +10488,31 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="132531712"/>
-        <c:axId val="132533248"/>
+        <c:axId val="193696512"/>
+        <c:axId val="193698048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132531712"/>
+        <c:axId val="193696512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132533248"/>
+        <c:crossAx val="193698048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132533248"/>
+        <c:axId val="193698048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132531712"/>
+        <c:crossAx val="193696512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10065,7 +10525,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11988,24 +12448,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="132576768"/>
-        <c:axId val="132578304"/>
+        <c:axId val="194884352"/>
+        <c:axId val="194885888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132576768"/>
+        <c:axId val="194884352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132578304"/>
+        <c:crossAx val="194885888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132578304"/>
+        <c:axId val="194885888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12013,7 +12473,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132576768"/>
+        <c:crossAx val="194884352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12025,7 +12485,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12035,20 +12495,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvPr id="3" name="Grafico 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14313,7 +14773,7 @@
   <dimension ref="A1:U151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/software/3D-CMCC-Forest-Model/tables/CO2_mod_assimilation.xlsx
+++ b/software/3D-CMCC-Forest-Model/tables/CO2_mod_assimilation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="9270" windowHeight="3615"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="9270" windowHeight="3615" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Fco2 8.5" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="33">
   <si>
     <t>T</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>CO2_ppm 8.5</t>
+  </si>
+  <si>
+    <t>FCO2 RCP 8.5</t>
+  </si>
+  <si>
+    <t>FCO2 RCP 6.0</t>
+  </si>
+  <si>
+    <t>FCO2 RCP 4.5</t>
+  </si>
+  <si>
+    <t>FCO2 RCP 2.6</t>
   </si>
 </sst>
 </file>
@@ -271,6 +283,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF007F00"/>
+      <color rgb="FF007E00"/>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1222,25 +1243,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="138773248"/>
-        <c:axId val="138775168"/>
+        <c:axId val="105784064"/>
+        <c:axId val="105785600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138773248"/>
+        <c:axId val="105784064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138775168"/>
+        <c:crossAx val="105785600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138775168"/>
+        <c:axId val="105785600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1248,7 +1269,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138773248"/>
+        <c:crossAx val="105784064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1261,7 +1282,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5028,31 +5049,31 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="142141312"/>
-        <c:axId val="142142848"/>
+        <c:axId val="112192128"/>
+        <c:axId val="111944064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142141312"/>
+        <c:axId val="112192128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142142848"/>
+        <c:crossAx val="111944064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142142848"/>
+        <c:axId val="111944064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142141312"/>
+        <c:crossAx val="112192128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5065,7 +5086,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5103,9 +5124,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.3085739282589702E-2"/>
-          <c:y val="0.15776647710702851"/>
-          <c:w val="0.68319203849518872"/>
+          <c:x val="0.11808573928258968"/>
+          <c:y val="0.15776647710702857"/>
+          <c:w val="0.62208092738407694"/>
           <c:h val="0.68886956838728497"/>
         </c:manualLayout>
       </c:layout>
@@ -5120,11 +5141,18 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2 8.5</c:v>
+                  <c:v>FCO2 RCP 8.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -5782,11 +5810,18 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2 6.0</c:v>
+                  <c:v>FCO2 RCP 6.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -6444,11 +6479,18 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2 4.5</c:v>
+                  <c:v>FCO2 RCP 4.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -7106,11 +7148,18 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2 2.6</c:v>
+                  <c:v>FCO2 RCP 2.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="007E00"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -7760,32 +7809,54 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="193635456"/>
-        <c:axId val="193636992"/>
+        <c:axId val="4315008"/>
+        <c:axId val="4316544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193635456"/>
+        <c:axId val="4315008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193636992"/>
+        <c:crossAx val="4316544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="20"/>
+        <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193636992"/>
+        <c:axId val="4316544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
         </c:scaling>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CO2 modifier</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193635456"/>
+        <c:crossAx val="4315008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7796,11 +7867,17 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -7836,7 +7913,17 @@
       <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11846062992125984"/>
+          <c:y val="0.19480351414406533"/>
+          <c:w val="0.60677974628171483"/>
+          <c:h val="0.68921660834062404"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
@@ -7848,11 +7935,18 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2st 8.5</c:v>
+                  <c:v>FCO2st RCP 8.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -8510,11 +8604,18 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2st 6.0</c:v>
+                  <c:v>FCO2st RCP 6.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -9172,11 +9273,18 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2st 4.5</c:v>
+                  <c:v>FCO2st RCP 4.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -9834,11 +9942,18 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2st 2.6</c:v>
+                  <c:v>FCO2st RCP 2.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="007F00"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -10488,33 +10603,63 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="193696512"/>
-        <c:axId val="193698048"/>
+        <c:axId val="160738304"/>
+        <c:axId val="162136832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193696512"/>
+        <c:axId val="160738304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193698048"/>
+        <c:crossAx val="162136832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="25"/>
+        <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193698048"/>
+        <c:axId val="162136832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CO2 modifier</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.3333333333333332E-3"/>
+              <c:y val="0.37967811315252259"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193696512"/>
+        <c:crossAx val="160738304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -10523,11 +10668,17 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -12448,24 +12599,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="194884352"/>
-        <c:axId val="194885888"/>
+        <c:axId val="123758080"/>
+        <c:axId val="123759616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194884352"/>
+        <c:axId val="123758080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194885888"/>
+        <c:crossAx val="123759616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194885888"/>
+        <c:axId val="123759616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12473,7 +12624,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194884352"/>
+        <c:crossAx val="123758080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12485,7 +12636,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12561,15 +12712,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12590,20 +12741,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Grafico 6"/>
+        <xdr:cNvPr id="8" name="Grafico 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12622,6 +12773,132 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.8</cdr:x>
+      <cdr:y>0.15278</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.48611</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CasellaDiTesto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3857625" y="419100"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1"/>
+            <a:t>(a)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76875</cdr:x>
+      <cdr:y>0.17708</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96875</cdr:x>
+      <cdr:y>0.51042</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CasellaDiTesto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3514725" y="485775"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1"/>
+            <a:t>(b)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12665,31 +12942,29 @@
       <sheetName val="benchmarkannual_FCO2_TR"/>
       <sheetName val="annual output_FCO2_TR"/>
       <sheetName val="annual comparison"/>
+      <sheetName val="off"/>
+      <sheetName val="on"/>
+      <sheetName val="Foglio3"/>
+      <sheetName val="Foglio5"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>year</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>year</v>
           </cell>
           <cell r="C1" t="str">
-            <v>FCO2st 8.5</v>
+            <v>FCO2st RCP 8.5</v>
           </cell>
           <cell r="E1" t="str">
-            <v>FCO2st 6.0</v>
+            <v>FCO2st RCP 6.0</v>
           </cell>
           <cell r="G1" t="str">
-            <v>FCO2st 4.5</v>
+            <v>FCO2st RCP 4.5</v>
           </cell>
           <cell r="I1" t="str">
-            <v>FCO2st 2.6</v>
+            <v>FCO2st RCP 2.6</v>
           </cell>
         </row>
         <row r="2">
@@ -14461,9 +14736,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14772,7 +15051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
@@ -35883,8 +36162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35913,16 +36192,16 @@
         <v>13</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:13">

--- a/software/3D-CMCC-Forest-Model/tables/CO2_mod_assimilation.xlsx
+++ b/software/3D-CMCC-Forest-Model/tables/CO2_mod_assimilation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="9270" windowHeight="3615" tabRatio="754" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="9270" windowHeight="3615" tabRatio="754" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Fco2 8.5" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1255,25 +1257,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95181824"/>
-        <c:axId val="95257344"/>
+        <c:axId val="199063424"/>
+        <c:axId val="199069696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95181824"/>
+        <c:axId val="199063424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95257344"/>
+        <c:crossAx val="199069696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95257344"/>
+        <c:axId val="199069696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1281,19 +1283,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95181824"/>
+        <c:crossAx val="199063424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5060,31 +5063,31 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100574336"/>
-        <c:axId val="100575872"/>
+        <c:axId val="200096768"/>
+        <c:axId val="201195904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100574336"/>
+        <c:axId val="200096768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100575872"/>
+        <c:crossAx val="201195904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100575872"/>
+        <c:axId val="201195904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100574336"/>
+        <c:crossAx val="200096768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5097,7 +5100,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5114,10 +5117,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13903807068672258"/>
-          <c:y val="9.2951662292213466E-2"/>
+          <c:x val="0.13903807068672261"/>
+          <c:y val="9.2951662292213494E-2"/>
           <c:w val="0.80905891213466563"/>
-          <c:h val="0.74905475357247009"/>
+          <c:h val="0.74905475357247031"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5147,327 +5150,325 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>all!$I$1:$I$105</c:f>
-              <c:strCache>
-                <c:ptCount val="105"/>
+            <c:numRef>
+              <c:f>all!$I$2:$I$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
-                  <c:v>year</c:v>
+                  <c:v>1996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1996</c:v>
+                  <c:v>1997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1997</c:v>
+                  <c:v>1998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1998</c:v>
+                  <c:v>1999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1999</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>2001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2001</c:v>
+                  <c:v>2002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2002</c:v>
+                  <c:v>2003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2003</c:v>
+                  <c:v>2004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2004</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2005</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2006</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2007</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2008</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2009</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2010</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2011</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2013</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2014</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2016</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2017</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2018</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2019</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2020</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2021</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2022</c:v>
+                  <c:v>2023</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2023</c:v>
+                  <c:v>2024</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2024</c:v>
+                  <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2025</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2026</c:v>
+                  <c:v>2027</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2027</c:v>
+                  <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2028</c:v>
+                  <c:v>2029</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2029</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2030</c:v>
+                  <c:v>2031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2031</c:v>
+                  <c:v>2032</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2032</c:v>
+                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2033</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2034</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2035</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2036</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2037</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2038</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2039</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2040</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2041</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2042</c:v>
+                  <c:v>2043</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2043</c:v>
+                  <c:v>2044</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2044</c:v>
+                  <c:v>2045</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2045</c:v>
+                  <c:v>2046</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2046</c:v>
+                  <c:v>2047</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2047</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2048</c:v>
+                  <c:v>2049</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2049</c:v>
+                  <c:v>2050</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2050</c:v>
+                  <c:v>2051</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2051</c:v>
+                  <c:v>2052</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2052</c:v>
+                  <c:v>2053</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2053</c:v>
+                  <c:v>2054</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2054</c:v>
+                  <c:v>2055</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2055</c:v>
+                  <c:v>2056</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2056</c:v>
+                  <c:v>2057</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2057</c:v>
+                  <c:v>2058</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2058</c:v>
+                  <c:v>2059</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2059</c:v>
+                  <c:v>2060</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2060</c:v>
+                  <c:v>2061</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2061</c:v>
+                  <c:v>2062</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2062</c:v>
+                  <c:v>2063</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2063</c:v>
+                  <c:v>2064</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2064</c:v>
+                  <c:v>2065</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2065</c:v>
+                  <c:v>2066</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2066</c:v>
+                  <c:v>2067</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2067</c:v>
+                  <c:v>2068</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2068</c:v>
+                  <c:v>2069</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2069</c:v>
+                  <c:v>2070</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2070</c:v>
+                  <c:v>2071</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2071</c:v>
+                  <c:v>2072</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2072</c:v>
+                  <c:v>2073</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2073</c:v>
+                  <c:v>2074</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2074</c:v>
+                  <c:v>2075</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2075</c:v>
+                  <c:v>2076</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2076</c:v>
+                  <c:v>2077</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2077</c:v>
+                  <c:v>2078</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2078</c:v>
+                  <c:v>2079</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2079</c:v>
+                  <c:v>2080</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2080</c:v>
+                  <c:v>2081</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2081</c:v>
+                  <c:v>2082</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2082</c:v>
+                  <c:v>2083</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2083</c:v>
+                  <c:v>2084</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2084</c:v>
+                  <c:v>2085</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2085</c:v>
+                  <c:v>2086</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2086</c:v>
+                  <c:v>2087</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2087</c:v>
+                  <c:v>2088</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2088</c:v>
+                  <c:v>2089</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2089</c:v>
+                  <c:v>2090</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2090</c:v>
+                  <c:v>2091</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2091</c:v>
+                  <c:v>2092</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2092</c:v>
+                  <c:v>2093</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2093</c:v>
+                  <c:v>2094</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2094</c:v>
+                  <c:v>2095</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2095</c:v>
+                  <c:v>2096</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2096</c:v>
+                  <c:v>2097</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2097</c:v>
+                  <c:v>2098</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2098</c:v>
-                </c:pt>
-                <c:pt idx="104">
                   <c:v>2099</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5816,327 +5817,325 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>all!$I$1:$I$105</c:f>
-              <c:strCache>
-                <c:ptCount val="105"/>
+            <c:numRef>
+              <c:f>all!$I$2:$I$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
-                  <c:v>year</c:v>
+                  <c:v>1996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1996</c:v>
+                  <c:v>1997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1997</c:v>
+                  <c:v>1998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1998</c:v>
+                  <c:v>1999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1999</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>2001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2001</c:v>
+                  <c:v>2002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2002</c:v>
+                  <c:v>2003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2003</c:v>
+                  <c:v>2004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2004</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2005</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2006</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2007</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2008</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2009</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2010</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2011</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2013</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2014</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2016</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2017</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2018</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2019</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2020</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2021</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2022</c:v>
+                  <c:v>2023</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2023</c:v>
+                  <c:v>2024</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2024</c:v>
+                  <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2025</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2026</c:v>
+                  <c:v>2027</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2027</c:v>
+                  <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2028</c:v>
+                  <c:v>2029</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2029</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2030</c:v>
+                  <c:v>2031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2031</c:v>
+                  <c:v>2032</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2032</c:v>
+                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2033</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2034</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2035</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2036</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2037</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2038</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2039</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2040</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2041</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2042</c:v>
+                  <c:v>2043</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2043</c:v>
+                  <c:v>2044</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2044</c:v>
+                  <c:v>2045</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2045</c:v>
+                  <c:v>2046</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2046</c:v>
+                  <c:v>2047</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2047</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2048</c:v>
+                  <c:v>2049</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2049</c:v>
+                  <c:v>2050</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2050</c:v>
+                  <c:v>2051</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2051</c:v>
+                  <c:v>2052</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2052</c:v>
+                  <c:v>2053</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2053</c:v>
+                  <c:v>2054</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2054</c:v>
+                  <c:v>2055</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2055</c:v>
+                  <c:v>2056</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2056</c:v>
+                  <c:v>2057</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2057</c:v>
+                  <c:v>2058</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2058</c:v>
+                  <c:v>2059</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2059</c:v>
+                  <c:v>2060</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2060</c:v>
+                  <c:v>2061</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2061</c:v>
+                  <c:v>2062</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2062</c:v>
+                  <c:v>2063</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2063</c:v>
+                  <c:v>2064</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2064</c:v>
+                  <c:v>2065</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2065</c:v>
+                  <c:v>2066</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2066</c:v>
+                  <c:v>2067</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2067</c:v>
+                  <c:v>2068</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2068</c:v>
+                  <c:v>2069</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2069</c:v>
+                  <c:v>2070</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2070</c:v>
+                  <c:v>2071</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2071</c:v>
+                  <c:v>2072</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2072</c:v>
+                  <c:v>2073</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2073</c:v>
+                  <c:v>2074</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2074</c:v>
+                  <c:v>2075</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2075</c:v>
+                  <c:v>2076</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2076</c:v>
+                  <c:v>2077</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2077</c:v>
+                  <c:v>2078</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2078</c:v>
+                  <c:v>2079</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2079</c:v>
+                  <c:v>2080</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2080</c:v>
+                  <c:v>2081</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2081</c:v>
+                  <c:v>2082</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2082</c:v>
+                  <c:v>2083</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2083</c:v>
+                  <c:v>2084</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2084</c:v>
+                  <c:v>2085</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2085</c:v>
+                  <c:v>2086</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2086</c:v>
+                  <c:v>2087</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2087</c:v>
+                  <c:v>2088</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2088</c:v>
+                  <c:v>2089</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2089</c:v>
+                  <c:v>2090</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2090</c:v>
+                  <c:v>2091</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2091</c:v>
+                  <c:v>2092</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2092</c:v>
+                  <c:v>2093</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2093</c:v>
+                  <c:v>2094</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2094</c:v>
+                  <c:v>2095</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2095</c:v>
+                  <c:v>2096</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2096</c:v>
+                  <c:v>2097</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2097</c:v>
+                  <c:v>2098</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2098</c:v>
-                </c:pt>
-                <c:pt idx="104">
                   <c:v>2099</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6485,327 +6484,325 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>all!$I$1:$I$105</c:f>
-              <c:strCache>
-                <c:ptCount val="105"/>
+            <c:numRef>
+              <c:f>all!$I$2:$I$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
-                  <c:v>year</c:v>
+                  <c:v>1996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1996</c:v>
+                  <c:v>1997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1997</c:v>
+                  <c:v>1998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1998</c:v>
+                  <c:v>1999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1999</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>2001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2001</c:v>
+                  <c:v>2002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2002</c:v>
+                  <c:v>2003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2003</c:v>
+                  <c:v>2004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2004</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2005</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2006</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2007</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2008</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2009</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2010</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2011</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2013</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2014</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2016</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2017</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2018</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2019</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2020</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2021</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2022</c:v>
+                  <c:v>2023</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2023</c:v>
+                  <c:v>2024</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2024</c:v>
+                  <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2025</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2026</c:v>
+                  <c:v>2027</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2027</c:v>
+                  <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2028</c:v>
+                  <c:v>2029</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2029</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2030</c:v>
+                  <c:v>2031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2031</c:v>
+                  <c:v>2032</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2032</c:v>
+                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2033</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2034</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2035</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2036</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2037</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2038</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2039</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2040</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2041</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2042</c:v>
+                  <c:v>2043</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2043</c:v>
+                  <c:v>2044</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2044</c:v>
+                  <c:v>2045</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2045</c:v>
+                  <c:v>2046</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2046</c:v>
+                  <c:v>2047</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2047</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2048</c:v>
+                  <c:v>2049</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2049</c:v>
+                  <c:v>2050</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2050</c:v>
+                  <c:v>2051</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2051</c:v>
+                  <c:v>2052</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2052</c:v>
+                  <c:v>2053</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2053</c:v>
+                  <c:v>2054</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2054</c:v>
+                  <c:v>2055</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2055</c:v>
+                  <c:v>2056</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2056</c:v>
+                  <c:v>2057</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2057</c:v>
+                  <c:v>2058</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2058</c:v>
+                  <c:v>2059</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2059</c:v>
+                  <c:v>2060</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2060</c:v>
+                  <c:v>2061</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2061</c:v>
+                  <c:v>2062</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2062</c:v>
+                  <c:v>2063</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2063</c:v>
+                  <c:v>2064</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2064</c:v>
+                  <c:v>2065</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2065</c:v>
+                  <c:v>2066</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2066</c:v>
+                  <c:v>2067</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2067</c:v>
+                  <c:v>2068</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2068</c:v>
+                  <c:v>2069</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2069</c:v>
+                  <c:v>2070</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2070</c:v>
+                  <c:v>2071</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2071</c:v>
+                  <c:v>2072</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2072</c:v>
+                  <c:v>2073</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2073</c:v>
+                  <c:v>2074</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2074</c:v>
+                  <c:v>2075</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2075</c:v>
+                  <c:v>2076</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2076</c:v>
+                  <c:v>2077</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2077</c:v>
+                  <c:v>2078</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2078</c:v>
+                  <c:v>2079</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2079</c:v>
+                  <c:v>2080</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2080</c:v>
+                  <c:v>2081</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2081</c:v>
+                  <c:v>2082</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2082</c:v>
+                  <c:v>2083</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2083</c:v>
+                  <c:v>2084</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2084</c:v>
+                  <c:v>2085</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2085</c:v>
+                  <c:v>2086</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2086</c:v>
+                  <c:v>2087</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2087</c:v>
+                  <c:v>2088</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2088</c:v>
+                  <c:v>2089</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2089</c:v>
+                  <c:v>2090</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2090</c:v>
+                  <c:v>2091</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2091</c:v>
+                  <c:v>2092</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2092</c:v>
+                  <c:v>2093</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2093</c:v>
+                  <c:v>2094</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2094</c:v>
+                  <c:v>2095</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2095</c:v>
+                  <c:v>2096</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2096</c:v>
+                  <c:v>2097</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2097</c:v>
+                  <c:v>2098</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2098</c:v>
-                </c:pt>
-                <c:pt idx="104">
                   <c:v>2099</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7129,6 +7126,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="204151808"/>
+        <c:axId val="217899776"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
@@ -7154,327 +7157,325 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>all!$I$1:$I$105</c:f>
-              <c:strCache>
-                <c:ptCount val="105"/>
+            <c:numRef>
+              <c:f>all!$I$2:$I$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
-                  <c:v>year</c:v>
+                  <c:v>1996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1996</c:v>
+                  <c:v>1997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1997</c:v>
+                  <c:v>1998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1998</c:v>
+                  <c:v>1999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1999</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>2001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2001</c:v>
+                  <c:v>2002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2002</c:v>
+                  <c:v>2003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2003</c:v>
+                  <c:v>2004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2004</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2005</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2006</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2007</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2008</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2009</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2010</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2011</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2013</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2014</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2016</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2017</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2018</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2019</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2020</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2021</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2022</c:v>
+                  <c:v>2023</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2023</c:v>
+                  <c:v>2024</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2024</c:v>
+                  <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2025</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2026</c:v>
+                  <c:v>2027</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2027</c:v>
+                  <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2028</c:v>
+                  <c:v>2029</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2029</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2030</c:v>
+                  <c:v>2031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2031</c:v>
+                  <c:v>2032</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2032</c:v>
+                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2033</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2034</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2035</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2036</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2037</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2038</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2039</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2040</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2041</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2042</c:v>
+                  <c:v>2043</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2043</c:v>
+                  <c:v>2044</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2044</c:v>
+                  <c:v>2045</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2045</c:v>
+                  <c:v>2046</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2046</c:v>
+                  <c:v>2047</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2047</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2048</c:v>
+                  <c:v>2049</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2049</c:v>
+                  <c:v>2050</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2050</c:v>
+                  <c:v>2051</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2051</c:v>
+                  <c:v>2052</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2052</c:v>
+                  <c:v>2053</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2053</c:v>
+                  <c:v>2054</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2054</c:v>
+                  <c:v>2055</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2055</c:v>
+                  <c:v>2056</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2056</c:v>
+                  <c:v>2057</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2057</c:v>
+                  <c:v>2058</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2058</c:v>
+                  <c:v>2059</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2059</c:v>
+                  <c:v>2060</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2060</c:v>
+                  <c:v>2061</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2061</c:v>
+                  <c:v>2062</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2062</c:v>
+                  <c:v>2063</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2063</c:v>
+                  <c:v>2064</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2064</c:v>
+                  <c:v>2065</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2065</c:v>
+                  <c:v>2066</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2066</c:v>
+                  <c:v>2067</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2067</c:v>
+                  <c:v>2068</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2068</c:v>
+                  <c:v>2069</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2069</c:v>
+                  <c:v>2070</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2070</c:v>
+                  <c:v>2071</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2071</c:v>
+                  <c:v>2072</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2072</c:v>
+                  <c:v>2073</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2073</c:v>
+                  <c:v>2074</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2074</c:v>
+                  <c:v>2075</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2075</c:v>
+                  <c:v>2076</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2076</c:v>
+                  <c:v>2077</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2077</c:v>
+                  <c:v>2078</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2078</c:v>
+                  <c:v>2079</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2079</c:v>
+                  <c:v>2080</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2080</c:v>
+                  <c:v>2081</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2081</c:v>
+                  <c:v>2082</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2082</c:v>
+                  <c:v>2083</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2083</c:v>
+                  <c:v>2084</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2084</c:v>
+                  <c:v>2085</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2085</c:v>
+                  <c:v>2086</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2086</c:v>
+                  <c:v>2087</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2087</c:v>
+                  <c:v>2088</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2088</c:v>
+                  <c:v>2089</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2089</c:v>
+                  <c:v>2090</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2090</c:v>
+                  <c:v>2091</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2091</c:v>
+                  <c:v>2092</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2092</c:v>
+                  <c:v>2093</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2093</c:v>
+                  <c:v>2094</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2094</c:v>
+                  <c:v>2095</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2095</c:v>
+                  <c:v>2096</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2096</c:v>
+                  <c:v>2097</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2097</c:v>
+                  <c:v>2098</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2098</c:v>
-                </c:pt>
-                <c:pt idx="104">
                   <c:v>2099</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7799,15 +7800,34 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="111067520"/>
-        <c:axId val="111069056"/>
+        <c:axId val="221487104"/>
+        <c:axId val="221480448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111067520"/>
+        <c:axId val="204151808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -7817,7 +7837,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="111069056"/>
+        <c:crossAx val="217899776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7826,7 +7846,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111069056"/>
+        <c:axId val="217899776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.6"/>
@@ -7853,7 +7873,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.9907842530435403E-3"/>
+              <c:x val="1.9907842530435408E-3"/>
               <c:y val="0.35421515018955962"/>
             </c:manualLayout>
           </c:layout>
@@ -7868,11 +7888,58 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="111067520"/>
+        <c:crossAx val="204151808"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.3000000000000001"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="221480448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.6"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="221487104"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.30000000000000004"/>
       </c:valAx>
+      <c:catAx>
+        <c:axId val="221487104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="221480448"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="20"/>
+        <c:tickMarkSkip val="10"/>
+      </c:catAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -7883,7 +7950,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -7901,10 +7968,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11846062992125993"/>
+          <c:x val="0.11846062992125997"/>
           <c:y val="0.12535906969962088"/>
-          <c:w val="0.60677974628171505"/>
-          <c:h val="0.75866105278506857"/>
+          <c:w val="0.60677974628171516"/>
+          <c:h val="0.75866105278506879"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -10586,11 +10653,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="4424448"/>
-        <c:axId val="4425984"/>
+        <c:axId val="218044672"/>
+        <c:axId val="218054656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="4424448"/>
+        <c:axId val="218044672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10604,7 +10671,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="4425984"/>
+        <c:crossAx val="218054656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10613,10 +10680,10 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4425984"/>
+        <c:axId val="218054656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.30000000000000004"/>
+          <c:min val="0.3000000000000001"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -10640,7 +10707,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="8.3333333333333367E-3"/>
-              <c:y val="0.37967811315252281"/>
+              <c:y val="0.37967811315252287"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -10654,7 +10721,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="4424448"/>
+        <c:crossAx val="218044672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -10673,7 +10740,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10690,12 +10757,984 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13486553721521422"/>
-          <c:y val="0.10684055118110236"/>
-          <c:w val="0.8355761845558779"/>
-          <c:h val="0.74382327209098864"/>
+          <c:x val="0.14093373881701743"/>
+          <c:y val="9.7581291921843102E-2"/>
+          <c:w val="0.82491937448854813"/>
+          <c:h val="0.74477216389617962"/>
         </c:manualLayout>
       </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio5!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FCO2 RCP6.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio5!$A$2:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio5!$D$2:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>1.0616761632654994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0716280120350192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0829279154160287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0956897015589198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1100178716847502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1260015227001483</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1437075206545089</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1631732618411832</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1843995216977672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.207344042012704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2319166101717887</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2579764025398037</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2853322655097714</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3137463775705243</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4299431903484043</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.445280675568976</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4604117532009411</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4752975576010228</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4899023366354551</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5041937046837097</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5181428219908788</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5317245017869923</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5449172487117551</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5577032338394914</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5700682129506387</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5820013956308041</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5934952733100693</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6045454145177567</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.6151502354702767</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6253107536896221</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6350303317290116</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6443144173206972</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6531702854151078</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6616067866998407</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6696341063126057</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.6772635356266739</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6845072592144597</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.6913781584006786</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.6978896322100094</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.704055435998824</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7098895376349137</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7154059907488186</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7206188243182599</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7255419476549965</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7301890697320621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio5!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FCO2 RCP4.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio5!$A$2:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio5!$E$2:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>1.0426246985598477</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0493595496972408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0569596950621345</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0654835794578807</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0749793032114592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.085480460953353</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0970018235346239</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1095351981411892</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.123045885908982</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1374702034836515</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1527145220897494</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1686561879663466</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1851465181899272</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2020158317089786</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2683796528131979</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2768378189421092</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2851158757011858</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.293196262004688</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3010636137412848</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3087047947928525</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3161088879480232</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3232671497811295</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3301729342106423</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3368215898297815</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3432103362365786</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3493381245122478</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3552054867430952</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3608143790926932</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3661680224479515</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3712707441223482</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3761278235349523</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3807453442224837</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3851300540050899</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3892892346307479</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3932305817787189</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3969620959152593</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.400491984166915</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4038285731072564</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.4069802321386589</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4099553069871085</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.412762062709255</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.4154086355311919</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4179029927915028</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.4202529002412398</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4224658959552325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio5!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FCO2 RCP2.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="007F00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio5!$A$2:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio5!$F$2:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>1.0164893012773204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0190193392550679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0218505689158144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0249962025499806</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0284640397788563</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0322550707659799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.036362207919842</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0407692962504183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0454505585049092</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0503706132614103</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.055485158759734</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0607423447427673</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0660847683201939</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0714519431390537</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0916540083795037</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0941292121793866</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0965308414460497</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0988554666812143</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1011003781011028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1032635577033445</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1053436426858749</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1073398820499549</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1092520881758174</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1110805850557373</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1128261547204996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1144899832159141</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1160736072895976</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1175788627463055</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1190078352320743</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1203628140206618</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1216462492053472</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1228607125483316</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1240088621103965</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1250934106753725</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1261170978966748</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1270826660251934</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1279928390272951</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1288503048664498</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1296577006997475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.130417600729188</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1311325064449413</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1318048390019744</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.1324369334808082</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1330310347962775</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.1335892950338029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="220303360"/>
+        <c:axId val="220306048"/>
+      </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
@@ -10732,150 +11771,148 @@
             <c:order val="2"/>
           </c:trendline>
           <c:cat>
-            <c:strRef>
-              <c:f>Foglio5!$A$1:$A$46</c:f>
-              <c:strCache>
-                <c:ptCount val="46"/>
+            <c:numRef>
+              <c:f>Foglio5!$A$2:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>Temp (C°)</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
                   <c:v>45</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -11022,988 +12059,35 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio5!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FCO2 RCP6.0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="28575">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-          </c:trendline>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio5!$A$1:$A$46</c:f>
-              <c:strCache>
-                <c:ptCount val="46"/>
-                <c:pt idx="0">
-                  <c:v>Temp (C°)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio5!$D$2:$D$46</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="45"/>
-                <c:pt idx="0">
-                  <c:v>1.0616761632654994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0716280120350192</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0829279154160287</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0956897015589198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1100178716847502</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1260015227001483</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1437075206545089</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1631732618411832</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1843995216977672</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.207344042012704</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2319166101717887</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2579764025398037</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2853322655097714</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3137463775705243</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4299431903484043</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.445280675568976</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.4604117532009411</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.4752975576010228</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.4899023366354551</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5041937046837097</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.5181428219908788</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.5317245017869923</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.5449172487117551</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.5577032338394914</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.5700682129506387</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.5820013956308041</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.5934952733100693</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.6045454145177567</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.6151502354702767</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.6253107536896221</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.6350303317290116</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.6443144173206972</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.6531702854151078</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.6616067866998407</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.6696341063126057</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.6772635356266739</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.6845072592144597</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.6913781584006786</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.6978896322100094</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.704055435998824</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.7098895376349137</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.7154059907488186</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.7206188243182599</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.7255419476549965</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.7301890697320621</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio5!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FCO2 RCP4.5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="28575">
-                <a:solidFill>
-                  <a:srgbClr val="0000FF"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-          </c:trendline>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio5!$A$1:$A$46</c:f>
-              <c:strCache>
-                <c:ptCount val="46"/>
-                <c:pt idx="0">
-                  <c:v>Temp (C°)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio5!$E$2:$E$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-                <c:pt idx="0">
-                  <c:v>1.0426246985598477</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0493595496972408</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0569596950621345</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0654835794578807</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0749793032114592</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.085480460953353</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0970018235346239</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1095351981411892</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.123045885908982</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1374702034836515</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1527145220897494</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1686561879663466</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.1851465181899272</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.2020158317089786</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.2683796528131979</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.2768378189421092</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.2851158757011858</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.293196262004688</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.3010636137412848</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.3087047947928525</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.3161088879480232</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.3232671497811295</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.3301729342106423</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.3368215898297815</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.3432103362365786</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.3493381245122478</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.3552054867430952</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.3608143790926932</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.3661680224479515</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.3712707441223482</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.3761278235349523</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.3807453442224837</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.3851300540050899</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.3892892346307479</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.3932305817787189</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.3969620959152593</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.400491984166915</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.4038285731072564</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.4069802321386589</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.4099553069871085</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.412762062709255</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.4154086355311919</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.4179029927915028</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.4202529002412398</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.4224658959552325</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio5!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FCO2 RCP2.6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="28575">
-                <a:solidFill>
-                  <a:srgbClr val="007F00"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-          </c:trendline>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio5!$A$1:$A$46</c:f>
-              <c:strCache>
-                <c:ptCount val="46"/>
-                <c:pt idx="0">
-                  <c:v>Temp (C°)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio5!$F$2:$F$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-                <c:pt idx="0">
-                  <c:v>1.0164893012773204</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0190193392550679</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0218505689158144</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0249962025499806</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0284640397788563</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0322550707659799</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.036362207919842</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0407692962504183</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0454505585049092</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0503706132614103</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.055485158759734</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0607423447427673</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0660847683201939</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0714519431390537</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0916540083795037</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0941292121793866</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0965308414460497</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0988554666812143</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1011003781011028</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.1032635577033445</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.1053436426858749</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.1073398820499549</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.1092520881758174</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.1110805850557373</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.1128261547204996</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.1144899832159141</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.1160736072895976</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.1175788627463055</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.1190078352320743</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.1203628140206618</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.1216462492053472</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.1228607125483316</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.1240088621103965</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.1250934106753725</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.1261170978966748</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.1270826660251934</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.1279928390272951</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.1288503048664498</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.1296577006997475</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.130417600729188</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.1311325064449413</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.1318048390019744</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.1324369334808082</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.1330310347962775</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.1335892950338029</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="111331968"/>
-        <c:axId val="111214976"/>
+        <c:axId val="211342080"/>
+        <c:axId val="211326464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111331968"/>
+        <c:axId val="220303360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature (C°)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -12023,7 +12107,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111214976"/>
+        <c:crossAx val="220306048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12032,9 +12116,10 @@
         <c:tickMarkSkip val="5"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111214976"/>
+        <c:axId val="220306048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.6"/>
           <c:min val="0.5"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -12058,12 +12143,12 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.100330105207624E-3"/>
-              <c:y val="0.37290718868474787"/>
+              <c:x val="2.7969730144960284E-3"/>
+              <c:y val="0.35207385535141439"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -12073,11 +12158,58 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="111331968"/>
+        <c:crossAx val="220303360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.30000000000000004"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="211326464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.6"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="211342080"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.30000000000000004"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="211342080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="211326464"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="6"/>
+        <c:tickMarkSkip val="6"/>
+      </c:catAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -12088,7 +12220,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -14012,24 +14144,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="111252608"/>
-        <c:axId val="111254144"/>
+        <c:axId val="217942656"/>
+        <c:axId val="217948544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111252608"/>
+        <c:axId val="217942656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111254144"/>
+        <c:crossAx val="217948544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111254144"/>
+        <c:axId val="217948544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14037,7 +14169,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111252608"/>
+        <c:crossAx val="217942656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14049,7 +14181,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14227,24 +14359,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="111470848"/>
-        <c:axId val="111349760"/>
+        <c:axId val="218116480"/>
+        <c:axId val="218118016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111470848"/>
+        <c:axId val="218116480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111349760"/>
+        <c:crossAx val="218118016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111349760"/>
+        <c:axId val="218118016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14252,7 +14384,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111470848"/>
+        <c:crossAx val="218116480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14264,7 +14396,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14295,6 +14427,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -14334,150 +14467,148 @@
             <c:order val="2"/>
           </c:trendline>
           <c:cat>
-            <c:strRef>
-              <c:f>Foglio5!$A$1:$A$46</c:f>
-              <c:strCache>
-                <c:ptCount val="46"/>
+            <c:numRef>
+              <c:f>Foglio5!$A$2:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>Temp (C°)</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
                   <c:v>45</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -14658,150 +14789,148 @@
             <c:order val="2"/>
           </c:trendline>
           <c:cat>
-            <c:strRef>
-              <c:f>Foglio5!$A$1:$A$46</c:f>
-              <c:strCache>
-                <c:ptCount val="46"/>
+            <c:numRef>
+              <c:f>Foglio5!$A$2:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>Temp (C°)</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
                   <c:v>45</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -14982,150 +15111,148 @@
             <c:order val="2"/>
           </c:trendline>
           <c:cat>
-            <c:strRef>
-              <c:f>Foglio5!$A$1:$A$46</c:f>
-              <c:strCache>
-                <c:ptCount val="46"/>
+            <c:numRef>
+              <c:f>Foglio5!$A$2:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>Temp (C°)</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
                   <c:v>45</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -15306,150 +15433,148 @@
             <c:order val="2"/>
           </c:trendline>
           <c:cat>
-            <c:strRef>
-              <c:f>Foglio5!$A$1:$A$46</c:f>
-              <c:strCache>
-                <c:ptCount val="46"/>
+            <c:numRef>
+              <c:f>Foglio5!$A$2:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>Temp (C°)</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
                   <c:v>45</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -15597,15 +15722,16 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="111735168"/>
-        <c:axId val="111736704"/>
+        <c:axId val="217995520"/>
+        <c:axId val="217997312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111735168"/>
+        <c:axId val="217995520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
@@ -15618,7 +15744,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111736704"/>
+        <c:crossAx val="217997312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15627,7 +15753,7 @@
         <c:tickMarkSkip val="5"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111736704"/>
+        <c:axId val="217997312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -15649,11 +15775,12 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111735168"/>
+        <c:crossAx val="217995520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15664,10 +15791,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.63823951030508375"/>
-          <c:y val="7.9425123942840486E-2"/>
-          <c:w val="0.34497865160794028"/>
-          <c:h val="0.66973753280839921"/>
+          <c:x val="0.63823951030508386"/>
+          <c:y val="7.94251239428405E-2"/>
+          <c:w val="0.34497865160794039"/>
+          <c:h val="0.66973753280839943"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -15680,7 +15807,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15813,48 +15940,18 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>560293</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>183295</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>231321</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>68995</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Grafico 10"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>510808</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
+      <xdr:colOff>291003</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1047</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>227870</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>72118</xdr:rowOff>
+      <xdr:rowOff>86772</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15864,7 +15961,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:srcRect l="74434"/>
         <a:stretch>
           <a:fillRect/>
@@ -15872,8 +15969,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16240665" y="1129393"/>
-          <a:ext cx="1161510" cy="2752725"/>
+          <a:off x="15919330" y="1144047"/>
+          <a:ext cx="1153136" cy="2752725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15881,6 +15978,36 @@
         <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>417634</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>337037</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83527</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15930,12 +16057,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.17119</cdr:x>
-      <cdr:y>0.096</cdr:y>
+      <cdr:x>0.18891</cdr:x>
+      <cdr:y>0.09615</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.29025</cdr:x>
-      <cdr:y>0.23489</cdr:y>
+      <cdr:x>0.3039</cdr:x>
+      <cdr:y>0.22436</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -15944,8 +16071,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="677465" y="263342"/>
-          <a:ext cx="471153" cy="381003"/>
+          <a:off x="674077" y="263769"/>
+          <a:ext cx="410308" cy="351692"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -16339,7 +16466,7 @@
       <sheetName val="Foglio5"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
@@ -18127,13 +18254,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -49888,8 +50015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE7" sqref="AE7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/software/3D-CMCC-Forest-Model/tables/CO2_mod_assimilation.xlsx
+++ b/software/3D-CMCC-Forest-Model/tables/CO2_mod_assimilation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="9270" windowHeight="3615" tabRatio="754" activeTab="16"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="9270" windowHeight="3615" tabRatio="754" firstSheet="6" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Fco2 8.5" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="56">
   <si>
     <t>T</t>
   </si>
@@ -220,19 +220,31 @@
     <t>FCO2 2.6 * FT</t>
   </si>
   <si>
-    <t>FCO2 * FT (RCP 8.5)</t>
+    <t>fCO2 RCP8.5</t>
   </si>
   <si>
-    <t>FCO2 * FT (HistRep)</t>
+    <t>fCO2 RCP6.0</t>
   </si>
   <si>
-    <t>FCO2 * FT (RCP 6.0 )</t>
+    <t>fCO2 RCP4.5</t>
   </si>
   <si>
-    <t>FCO2 * FT (RCP 4.5)</t>
+    <t>fCO2 RCP2.6</t>
   </si>
   <si>
-    <t>FCO2 * FT (RCP 2.6)</t>
+    <t>fCO2 * fT (RCP 4.5)</t>
+  </si>
+  <si>
+    <t>fCO2 * fT (RCP 2.6)</t>
+  </si>
+  <si>
+    <t>fCO2 * fT (RCP 6.0 )</t>
+  </si>
+  <si>
+    <t>fCO2 * fT (RCP 8.5)</t>
+  </si>
+  <si>
+    <t>fCO2 * fT (HistRep)</t>
   </si>
 </sst>
 </file>
@@ -376,9 +388,9 @@
   <colors>
     <mruColors>
       <color rgb="FF007F00"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF007E00"/>
     </mruColors>
   </colors>
@@ -1331,25 +1343,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66299776"/>
-        <c:axId val="66921600"/>
+        <c:axId val="113489408"/>
+        <c:axId val="113490944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66299776"/>
+        <c:axId val="113489408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66921600"/>
+        <c:crossAx val="113490944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66921600"/>
+        <c:axId val="113490944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1357,7 +1369,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66299776"/>
+        <c:crossAx val="113489408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1369,7 +1381,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1407,8 +1419,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.387314085739285E-2"/>
-                  <c:y val="0.48100685331000304"/>
+                  <c:x val="-8.3873140857392864E-2"/>
+                  <c:y val="0.48100685331000337"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1583,8 +1595,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.1095363079615124E-2"/>
-                  <c:y val="0.34501822688830575"/>
+                  <c:x val="-8.1095363079615221E-2"/>
+                  <c:y val="0.3450182268883058"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1594,7 +1606,7 @@
             <c:numRef>
               <c:f>[2]Foglio1!$C$2:$C$46</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0616761632654994</c:v>
@@ -1759,8 +1771,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.1095363079615124E-2"/>
-                  <c:y val="0.32103127734033254"/>
+                  <c:x val="-8.1095363079615221E-2"/>
+                  <c:y val="0.32103127734033271"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1935,8 +1947,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.142869641294836E-2"/>
-                  <c:y val="0.28656022163896189"/>
+                  <c:x val="-9.1428696412948332E-2"/>
+                  <c:y val="0.28656022163896205"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2088,24 +2100,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="178207360"/>
-        <c:axId val="178213248"/>
+        <c:axId val="58518912"/>
+        <c:axId val="58520704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178207360"/>
+        <c:axId val="58518912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178213248"/>
+        <c:crossAx val="58520704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178213248"/>
+        <c:axId val="58520704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2113,7 +2125,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178207360"/>
+        <c:crossAx val="58518912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2126,7 +2138,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2142,10 +2154,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11290507436570429"/>
+          <c:x val="0.11290507436570428"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.53881671041119861"/>
-          <c:h val="0.81873067949839606"/>
+          <c:h val="0.81873067949839673"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2159,27 +2171,38 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2 * FT (RCP 8.5)</c:v>
+                  <c:v>fCO2 * fT (RCP 8.5)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="12700">
               <a:solidFill>
                 <a:srgbClr val="FF00FF"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF00FF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="20"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.3333333333333332E-3"/>
+                  <c:x val="-8.3333333333333367E-3"/>
                   <c:y val="-4.1666666666666664E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -2213,10 +2236,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$R$2:$R$47</c:f>
+              <c:f>Foglio1!$R$2:$R$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2323,36 +2346,6 @@
                   <c:v>0.28027424469747936</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2368,27 +2361,38 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2 * FT (RCP 6.0 )</c:v>
+                  <c:v>fCO2 * fT (RCP 6.0 )</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="12700">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="19"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.6666666666666666E-2"/>
+                  <c:x val="-1.6666666666666677E-2"/>
                   <c:y val="-5.0925925925925923E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -2422,10 +2426,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$S$2:$S$47</c:f>
+              <c:f>Foglio1!$S$2:$S$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2532,36 +2536,6 @@
                   <c:v>0.21030647352804691</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2577,28 +2551,39 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2 * FT (RCP 4.5)</c:v>
+                  <c:v>fCO2 * fT (RCP 4.5)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="12700">
               <a:solidFill>
                 <a:srgbClr val="0000FF"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="19"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.6111111111111108E-2"/>
-                  <c:y val="-3.2407407407407406E-2"/>
+                  <c:x val="-3.6111111111111129E-2"/>
+                  <c:y val="-3.2407407407407426E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2631,10 +2616,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$T$2:$T$47</c:f>
+              <c:f>Foglio1!$T$2:$T$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2741,36 +2726,6 @@
                   <c:v>0.18605184653343881</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2786,28 +2741,39 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2 * FT (RCP 2.6)</c:v>
+                  <c:v>fCO2 * fT (RCP 2.6)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="12700">
               <a:solidFill>
                 <a:srgbClr val="007E00"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="007F00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="007E00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="18"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.6111111111111108E-2"/>
-                  <c:y val="-2.7777777777777821E-2"/>
+                  <c:x val="-3.6111111111111129E-2"/>
+                  <c:y val="-2.7777777777777853E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2840,10 +2806,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$U$2:$U$47</c:f>
+              <c:f>Foglio1!$U$2:$U$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2950,36 +2916,6 @@
                   <c:v>0.146882899840484</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2987,8 +2923,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="122120448"/>
-        <c:axId val="122127104"/>
+        <c:axId val="140760960"/>
+        <c:axId val="140652544"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3001,28 +2937,39 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2 * FT (HistRep)</c:v>
+                  <c:v>fCO2 * fT (HistRep)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="12700">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:prstClr val="black"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="19"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.5555555555555552E-2"/>
-                  <c:y val="2.7777777777777776E-2"/>
+                  <c:x val="-5.5555555555555518E-2"/>
+                  <c:y val="2.7777777777777811E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3204,10 +3151,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$M$2:$M$47</c:f>
+              <c:f>Foglio1!$M$2:$M$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3314,36 +3261,6 @@
                   <c:v>0.13005161927403802</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3351,11 +3268,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="121951360"/>
-        <c:axId val="121612928"/>
+        <c:axId val="140656000"/>
+        <c:axId val="140654464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122120448"/>
+        <c:axId val="140760960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3367,10 +3284,16 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>Temperature (°C)</a:t>
                 </a:r>
               </a:p>
@@ -3387,7 +3310,20 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="122127104"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="140652544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3396,7 +3332,7 @@
         <c:tickMarkSkip val="5"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122127104"/>
+        <c:axId val="140652544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3408,11 +3344,38 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FCO2 * FT</a:t>
+                  <a:rPr lang="en-US" sz="1000">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>f</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" baseline="-25000">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>CO2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> * f</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" baseline="-25000">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>T</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3421,7 +3384,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.7777777777777779E-3"/>
+              <c:x val="2.7777777777777822E-3"/>
               <c:y val="0.36409922717993587"/>
             </c:manualLayout>
           </c:layout>
@@ -3436,13 +3399,26 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="122120448"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="140760960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.30000000000000004"/>
+        <c:majorUnit val="0.30000000000000021"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121612928"/>
+        <c:axId val="140654464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.1"/>
@@ -3458,13 +3434,13 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="121951360"/>
+        <c:crossAx val="140656000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.30000000000000004"/>
+        <c:majorUnit val="0.30000000000000021"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="121951360"/>
+        <c:axId val="140656000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,7 +3455,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="121612928"/>
+        <c:crossAx val="140654464"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3491,6 +3467,19 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3501,8 +3490,8 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -7268,31 +7257,31 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="67485056"/>
-        <c:axId val="67495424"/>
+        <c:axId val="113605632"/>
+        <c:axId val="113612672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67485056"/>
+        <c:axId val="113605632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67495424"/>
+        <c:crossAx val="113612672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67495424"/>
+        <c:axId val="113612672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67485056"/>
+        <c:crossAx val="113605632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7305,7 +7294,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7322,10 +7311,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13903807068672264"/>
-          <c:y val="9.2951662292213522E-2"/>
+          <c:x val="0.13903807068672272"/>
+          <c:y val="9.2951662292213577E-2"/>
           <c:w val="0.80905891213466563"/>
-          <c:h val="0.74905475357247053"/>
+          <c:h val="0.7490547535724712"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -7339,7 +7328,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2 RCP8.5</c:v>
+                  <c:v>fCO2 RCP8.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9332,8 +9321,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70727936"/>
-        <c:axId val="70731264"/>
+        <c:axId val="115931008"/>
+        <c:axId val="116806784"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10005,11 +9994,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70747264"/>
-        <c:axId val="70733184"/>
+        <c:axId val="118151808"/>
+        <c:axId val="118149888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70727936"/>
+        <c:axId val="115931008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10021,10 +10010,16 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>Year</a:t>
                 </a:r>
               </a:p>
@@ -10042,7 +10037,20 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="70731264"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="116806784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10051,7 +10059,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70731264"/>
+        <c:axId val="116806784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.6"/>
@@ -10065,11 +10073,31 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FCO2 modifier</a:t>
+                  <a:rPr lang="en-US" sz="1000">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>f</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" baseline="-25000">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>CO2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> modifier</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -10078,7 +10106,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.9907842530435412E-3"/>
+              <c:x val="1.9907842530435425E-3"/>
               <c:y val="0.35421515018955962"/>
             </c:manualLayout>
           </c:layout>
@@ -10093,13 +10121,26 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="70727936"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="115931008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.30000000000000016"/>
+        <c:majorUnit val="0.30000000000000032"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70733184"/>
+        <c:axId val="118149888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.6"/>
@@ -10116,13 +10157,13 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="70747264"/>
+        <c:crossAx val="118151808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.3000000000000001"/>
+        <c:majorUnit val="0.30000000000000027"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="70747264"/>
+        <c:axId val="118151808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10137,7 +10178,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="70733184"/>
+        <c:crossAx val="118149888"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10155,7 +10196,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -10173,10 +10214,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11846062992126001"/>
+          <c:x val="0.11846062992126009"/>
           <c:y val="0.12535906969962088"/>
-          <c:w val="0.60677974628171538"/>
-          <c:h val="0.7586610527850689"/>
+          <c:w val="0.60677974628171583"/>
+          <c:h val="0.75866105278506923"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -10190,7 +10231,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2st RCP 8.5</c:v>
+                  <c:v>fCO2st RCP 8.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10859,7 +10900,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2st RCP 6.0</c:v>
+                  <c:v>fCO2st RCP 6.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11528,7 +11569,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2st RCP 4.5</c:v>
+                  <c:v>fCO2st RCP 4.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12188,6 +12229,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="110790144"/>
+        <c:axId val="110791680"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
@@ -12197,7 +12244,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2st RCP 2.6</c:v>
+                  <c:v>fCO2st RCP 2.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12858,11 +12905,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72055424"/>
-        <c:axId val="72151424"/>
+        <c:axId val="110807680"/>
+        <c:axId val="110806144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72055424"/>
+        <c:axId val="110790144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12876,7 +12923,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72151424"/>
+        <c:crossAx val="110791680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12885,10 +12932,10 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72151424"/>
+        <c:axId val="110791680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.30000000000000016"/>
+          <c:min val="0.30000000000000032"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -12912,7 +12959,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="8.3333333333333367E-3"/>
-              <c:y val="0.37967811315252292"/>
+              <c:y val="0.37967811315252314"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -12926,11 +12973,57 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72055424"/>
+        <c:crossAx val="110790144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="110806144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0.30000000000000016"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="110807680"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="110807680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="t"/>
+        <c:majorTickMark val="in"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="110806144"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="25"/>
+        <c:tickMarkSkip val="10"/>
+      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -12945,7 +13038,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12962,9 +13055,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14093373881701746"/>
+          <c:x val="0.14093373881701754"/>
           <c:y val="9.7581291921843102E-2"/>
-          <c:w val="0.82491937448854824"/>
+          <c:w val="0.82491937448854868"/>
           <c:h val="0.74477216389617962"/>
         </c:manualLayout>
       </c:layout>
@@ -12979,7 +13072,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2 RCP6.0</c:v>
+                  <c:v>fCO2 RCP6.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13301,7 +13394,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2 RCP4.5</c:v>
+                  <c:v>fCO2 RCP4.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13623,7 +13716,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2 RCP2.6</c:v>
+                  <c:v>fCO2 RCP2.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13937,8 +14030,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72949760"/>
-        <c:axId val="72952064"/>
+        <c:axId val="140117120"/>
+        <c:axId val="140119040"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13951,7 +14044,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2 RCP8.5</c:v>
+                  <c:v>fCO2 RCP8.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14265,11 +14358,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72969600"/>
-        <c:axId val="72967296"/>
+        <c:axId val="140130944"/>
+        <c:axId val="140129408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72949760"/>
+        <c:axId val="140117120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14281,10 +14374,16 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>Temperature (C°)</a:t>
                 </a:r>
               </a:p>
@@ -14307,12 +14406,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72952064"/>
+        <c:crossAx val="140119040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14321,7 +14423,7 @@
         <c:tickMarkSkip val="5"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72952064"/>
+        <c:axId val="140119040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.6"/>
@@ -14335,11 +14437,31 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FCO2 modifier</a:t>
+                  <a:rPr lang="en-US" sz="1000">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>f</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" baseline="-25000">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>CO2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> modifier</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -14348,8 +14470,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.7969730144960289E-3"/>
-              <c:y val="0.35207385535141444"/>
+              <c:x val="2.7969730144960302E-3"/>
+              <c:y val="0.35207385535141461"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -14363,13 +14485,26 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72949760"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="140117120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.3000000000000001"/>
+        <c:majorUnit val="0.30000000000000027"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72967296"/>
+        <c:axId val="140129408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.6"/>
@@ -14386,13 +14521,13 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72969600"/>
+        <c:crossAx val="140130944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.3000000000000001"/>
+        <c:majorUnit val="0.30000000000000027"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="72969600"/>
+        <c:axId val="140130944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14407,7 +14542,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72967296"/>
+        <c:crossAx val="140129408"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14425,7 +14560,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -16349,24 +16484,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="171362560"/>
-        <c:axId val="171364352"/>
+        <c:axId val="140148096"/>
+        <c:axId val="140162176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171362560"/>
+        <c:axId val="140148096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171364352"/>
+        <c:crossAx val="140162176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171364352"/>
+        <c:axId val="140162176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16374,7 +16509,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171362560"/>
+        <c:crossAx val="140148096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16386,7 +16521,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -16396,9 +16531,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -16566,24 +16699,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="171597824"/>
-        <c:axId val="171599360"/>
+        <c:axId val="140285056"/>
+        <c:axId val="140286592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171597824"/>
+        <c:axId val="140285056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171599360"/>
+        <c:crossAx val="140286592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171599360"/>
+        <c:axId val="140286592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16591,20 +16724,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171597824"/>
+        <c:crossAx val="140285056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -16635,10 +16767,19 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13885825799675508"/>
+          <c:y val="0.19480351414406533"/>
+          <c:w val="0.55041367671352592"/>
+          <c:h val="0.68921660834062393"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
@@ -16650,7 +16791,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2 RCP8.5</c:v>
+                  <c:v>fCO2 RCP8.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16664,6 +16805,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
+            <c:name>fCO2 RCP8.5</c:name>
             <c:spPr>
               <a:ln w="28575">
                 <a:solidFill>
@@ -16972,7 +17114,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2 RCP6.0</c:v>
+                  <c:v>fCO2 RCP6.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16986,6 +17128,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
+            <c:name>fCO2 RCP6.0</c:name>
             <c:spPr>
               <a:ln w="28575">
                 <a:solidFill>
@@ -17294,7 +17437,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2 RCP4.5</c:v>
+                  <c:v>fCO2 RCP4.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17308,6 +17451,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
+            <c:name>fCO2 RCP4.5</c:name>
             <c:spPr>
               <a:ln w="28575">
                 <a:solidFill>
@@ -17616,7 +17760,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FCO2 RCP2.6</c:v>
+                  <c:v>fCO2 RCP2.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17630,6 +17774,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
+            <c:name>fCO2 RCP2.6</c:name>
             <c:spPr>
               <a:ln w="28575">
                 <a:solidFill>
@@ -17930,11 +18075,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="171445632"/>
-        <c:axId val="171451520"/>
+        <c:axId val="140448512"/>
+        <c:axId val="140450048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171445632"/>
+        <c:axId val="140448512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17952,7 +18097,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171451520"/>
+        <c:crossAx val="140450048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17961,7 +18106,7 @@
         <c:tickMarkSkip val="5"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171451520"/>
+        <c:axId val="140450048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -17983,12 +18128,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171445632"/>
+        <c:crossAx val="140448512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17999,10 +18143,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.63823951030508408"/>
-          <c:y val="7.9425123942840514E-2"/>
-          <c:w val="0.3449786516079405"/>
-          <c:h val="0.66973753280839965"/>
+          <c:x val="0.63823951030508375"/>
+          <c:y val="2.3869568387284931E-2"/>
+          <c:w val="0.34497865160794083"/>
+          <c:h val="0.6697375328084002"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -18015,7 +18159,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -18056,7 +18200,7 @@
                   <c:v>9.2365704660169107E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18064128360710063</c:v>
+                  <c:v>0.18064128360710077</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.26478007357174982</c:v>
@@ -18065,46 +18209,46 @@
                   <c:v>0.3447329706020868</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42044820762685742</c:v>
+                  <c:v>0.42044820762685764</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49187110296247838</c:v>
+                  <c:v>0.49187110296247866</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.55894377476921331</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.62160481538672474</c:v>
+                  <c:v>0.62160481538672518</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67978891812111608</c:v>
+                  <c:v>0.67978891812111675</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.7334264473278278</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.78244294041712592</c:v>
+                  <c:v>0.78244294041712559</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.82675852753572932</c:v>
+                  <c:v>0.82675852753572965</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.86628725091755687</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.90093626092041967</c:v>
+                  <c:v>0.90093626092041956</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.93060485910209989</c:v>
+                  <c:v>0.93060485910210022</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.9551833496505987</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97455164804845429</c:v>
+                  <c:v>0.97455164804845462</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.98857757847701766</c:v>
+                  <c:v>0.98857757847701733</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.99711476677448452</c:v>
@@ -18116,40 +18260,40 @@
                   <c:v>0.99704987076304064</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.98805644438066242</c:v>
+                  <c:v>0.98805644438066209</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9727815623653191</c:v>
+                  <c:v>0.97278156236531943</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95094919608674422</c:v>
+                  <c:v>0.95094919608674455</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.92223493308360149</c:v>
+                  <c:v>0.9222349330836016</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.88625110584464928</c:v>
+                  <c:v>0.88625110584464895</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.84252503495545772</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.79046586688263376</c:v>
+                  <c:v>0.79046586688263332</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.7293113892161025</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.65803700647624641</c:v>
+                  <c:v>0.65803700647624663</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.57518592130083979</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.47851160999079084</c:v>
+                  <c:v>0.47851160999079101</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.36407260116115625</c:v>
+                  <c:v>0.36407260116115647</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.2230388294100821</c:v>
@@ -18215,13 +18359,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>0.10021417393114168</c:v>
+                  <c:v>0.10021417393114176</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.19853073939348898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29526175539994926</c:v>
+                  <c:v>0.29526175539994948</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.39073661752750588</c:v>
@@ -18239,19 +18383,19 @@
                   <c:v>0.7665795583972147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.86037268582620796</c:v>
+                  <c:v>0.86037268582620741</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.95438753848767544</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0485613487076626</c:v>
+                  <c:v>1.0485613487076619</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.1426634088476042</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.23626739717004</c:v>
+                  <c:v>1.2362673971700398</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.3287300489476899</c:v>
@@ -18260,7 +18404,7 @@
                   <c:v>1.5649442729917202</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6337640831472917</c:v>
+                  <c:v>1.633764083147291</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.6949090104485021</c:v>
@@ -18269,16 +18413,16 @@
                   <c:v>1.7476121072149218</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.791066000907878</c:v>
+                  <c:v>1.7910660009078778</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8244216837340674</c:v>
+                  <c:v>1.8244216837340668</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8467855424463682</c:v>
+                  <c:v>1.8467855424463688</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.8572139287081755</c:v>
+                  <c:v>1.8572139287081761</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1.8547043036455273</c:v>
@@ -18287,19 +18431,19 @@
                   <c:v>1.8381815583231562</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.8064773876593603</c:v>
+                  <c:v>1.8064773876593598</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1.7582993338590656</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.6921838181920095</c:v>
+                  <c:v>1.6921838181920101</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.6064230625974707</c:v>
+                  <c:v>1.60642306259747</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4989467130999696</c:v>
+                  <c:v>1.498946713099969</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.3671185906124033</c:v>
@@ -18311,7 +18455,7 @@
                   <c:v>1.0143435175638187</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.77900961120782253</c:v>
+                  <c:v>0.77900961120782308</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.48150412064779452</c:v>
@@ -18377,7 +18521,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>9.8062466940922674E-2</c:v>
+                  <c:v>9.8062466940922757E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.19358025964333125</c:v>
@@ -18386,10 +18530,10 @@
                   <c:v>0.28673773311675776</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3777203656765204</c:v>
+                  <c:v>0.37772036567652056</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46670502458363194</c:v>
+                  <c:v>0.46670502458363178</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.55384761090795187</c:v>
@@ -18401,13 +18545,13 @@
                   <c:v>0.72303410068956275</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80514166947809251</c:v>
+                  <c:v>0.80514166947809296</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88549805143579741</c:v>
+                  <c:v>0.88549805143579763</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9639044548115131</c:v>
+                  <c:v>0.96390445481151343</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.0400427182385021</c:v>
@@ -18422,10 +18566,10 @@
                   <c:v>1.3307120811781841</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3805080368752551</c:v>
+                  <c:v>1.3805080368752563</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4232466809113089</c:v>
+                  <c:v>1.4232466809113082</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.4584460870262779</c:v>
@@ -18434,7 +18578,7 @@
                   <c:v>1.4856036209110217</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5041937046837102</c:v>
+                  <c:v>1.5041937046837108</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1.5136641044658432</c:v>
@@ -18443,37 +18587,37 @@
                   <c:v>1.5134302650063978</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.5028670149269514</c:v>
+                  <c:v>1.5028670149269521</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4812966379613852</c:v>
+                  <c:v>1.4812966379613846</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4479717533072212</c:v>
+                  <c:v>1.4479717533072201</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1.4020504863255789</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3425596608469232</c:v>
+                  <c:v>1.3425596608469239</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2683383820393335</c:v>
+                  <c:v>1.2683383820393328</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1779474620235433</c:v>
+                  <c:v>1.1779474620235439</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.0695146229515704</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.94044642771036902</c:v>
+                  <c:v>0.94044642771036868</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.78682353916319592</c:v>
+                  <c:v>0.78682353916319625</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.60187400597340934</c:v>
+                  <c:v>0.60187400597340979</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.37060283264538046</c:v>
@@ -18542,13 +18686,13 @@
                   <c:v>9.6302764978576733E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18955765602267863</c:v>
+                  <c:v>0.18955765602267871</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27986186582092637</c:v>
+                  <c:v>0.27986186582092665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36730731947425987</c:v>
+                  <c:v>0.36730731947426015</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.45197312127122591</c:v>
@@ -18557,22 +18701,22 @@
                   <c:v>0.53391647157334499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61316234017515292</c:v>
+                  <c:v>0.61316234017515259</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.68969242200562664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.76343414778243668</c:v>
+                  <c:v>0.76343414778243657</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.83425073028227592</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9019333401254257</c:v>
+                  <c:v>0.90193334012542559</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.96619646915857516</c:v>
+                  <c:v>0.96619646915857571</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.0266773191772665</c:v>
@@ -18584,7 +18728,7 @@
                   <c:v>1.1803602680941958</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2196142248576882</c:v>
+                  <c:v>1.2196142248576878</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.2524117945978228</c:v>
@@ -18593,10 +18737,10 @@
                   <c:v>1.2784248291881255</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2973097417744091</c:v>
+                  <c:v>1.2973097417744084</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3087047947928521</c:v>
+                  <c:v>1.3087047947928518</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1.3122261966386652</c:v>
@@ -18605,19 +18749,19 @@
                   <c:v>1.3074626349784766</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2939677051574885</c:v>
+                  <c:v>1.2939677051574874</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1.2712494161600338</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.238755494556343</c:v>
+                  <c:v>1.2387554945563437</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1.1958524050073249</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.1417945500900539</c:v>
+                  <c:v>1.1417945500900533</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1.075677317835859</c:v>
@@ -18632,13 +18776,13 @@
                   <c:v>0.791529350007671</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.66070267765118984</c:v>
+                  <c:v>0.66070267765119073</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.50428790170812532</c:v>
+                  <c:v>0.50428790170812499</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.30986544460407101</c:v>
+                  <c:v>0.30986544460407117</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
@@ -18701,19 +18845,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>9.3888750592002676E-2</c:v>
+                  <c:v>9.3888750592002732E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18407696146349498</c:v>
+                  <c:v>0.18407696146349506</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27056566881686384</c:v>
+                  <c:v>0.270565668816864</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35334998576091303</c:v>
+                  <c:v>0.35334998576091337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43241586213369715</c:v>
+                  <c:v>0.43241586213369743</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.50773644019627351</c:v>
@@ -18722,7 +18866,7 @@
                   <c:v>0.57926820452287275</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.64694720625591273</c:v>
+                  <c:v>0.64694720625591307</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.71068570411516863</c:v>
@@ -18737,16 +18881,16 @@
                   <c:v>0.87697777903432705</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.92353564319318171</c:v>
+                  <c:v>0.92353564319318204</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.96530990740761735</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0158985246562509</c:v>
+                  <c:v>1.0158985246562515</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0450940058400766</c:v>
+                  <c:v>1.0450940058400759</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.0686259386672061</c:v>
@@ -18758,10 +18902,10 @@
                   <c:v>1.0979234467055778</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1032635577033441</c:v>
+                  <c:v>1.1032635577033438</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1020827360887009</c:v>
+                  <c:v>1.1020827360887024</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1.094114306579181</c:v>
@@ -18770,10 +18914,10 @@
                   <c:v>1.0790599793926641</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.056581189146343</c:v>
+                  <c:v>1.0565811891463437</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0262871543323417</c:v>
+                  <c:v>1.0262871543323424</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.98771798007788858</c:v>
@@ -18788,10 +18932,10 @@
                   <c:v>0.81610515885680768</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7372401923054599</c:v>
+                  <c:v>0.73724019230546023</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.64515513122280921</c:v>
+                  <c:v>0.64515513122280954</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.53730188735690854</c:v>
@@ -18840,11 +18984,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="178145152"/>
-        <c:axId val="178159616"/>
+        <c:axId val="140638848"/>
+        <c:axId val="58471168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178145152"/>
+        <c:axId val="140638848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18869,7 +19013,7 @@
         </c:title>
         <c:majorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178159616"/>
+        <c:crossAx val="58471168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18878,7 +19022,7 @@
         <c:tickMarkSkip val="3"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178159616"/>
+        <c:axId val="58471168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18904,7 +19048,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178145152"/>
+        <c:crossAx val="140638848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18917,7 +19061,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -19050,46 +19194,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>291003</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1047</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>227870</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>86772</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:srcRect l="74434"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15919330" y="1144047"/>
-          <a:ext cx="1153136" cy="2752725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -19114,10 +19218,50 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>299359</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>121257</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>126546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect l="69657" r="7144"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16029216" y="1183821"/>
+          <a:ext cx="1046541" cy="2752725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -19303,7 +19447,7 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="11" name="Gruppo 10"/>
+          <xdr:cNvPr id="6" name="Gruppo 5"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -19314,171 +19458,30 @@
             <a:chExt cx="4540623" cy="2743760"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="6" name="Gruppo 5"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="5577168" y="504265"/>
-              <a:ext cx="4540623" cy="2743760"/>
-              <a:chOff x="5577168" y="504265"/>
-              <a:chExt cx="4540623" cy="2743760"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:graphicFrame macro="">
-            <xdr:nvGraphicFramePr>
-              <xdr:cNvPr id="3" name="Grafico 2"/>
-              <xdr:cNvGraphicFramePr/>
-            </xdr:nvGraphicFramePr>
-            <xdr:xfrm>
-              <a:off x="5577168" y="504825"/>
-              <a:ext cx="4540623" cy="2743200"/>
-            </xdr:xfrm>
-            <a:graphic>
-              <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-                <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-              </a:graphicData>
-            </a:graphic>
-          </xdr:graphicFrame>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="4" name="CasellaDiTesto 3"/>
-              <xdr:cNvSpPr txBox="1"/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="8572500" y="504265"/>
-                <a:ext cx="1479177" cy="1098176"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="9525" cmpd="sng">
-                <a:noFill/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="it-IT" sz="1100" b="1">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="it-IT" sz="1100" b="1">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT" sz="1100" b="1">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>      (b)</a:t>
-                </a:r>
-                <a:endParaRPr lang="it-IT"/>
-              </a:p>
-              <a:p>
-                <a:endParaRPr lang="it-IT" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Grafico 2"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="5577168" y="504825"/>
+            <a:ext cx="4540623" cy="2743200"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="CasellaDiTesto 9"/>
+            <xdr:cNvPr id="4" name="CasellaDiTesto 3"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8908676" y="1669676"/>
-              <a:ext cx="288000" cy="952500"/>
+              <a:off x="8572500" y="504265"/>
+              <a:ext cx="1479177" cy="1019735"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -19507,6 +19510,60 @@
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
             <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
             <a:p>
               <a:endParaRPr lang="it-IT" sz="1100"/>
             </a:p>
@@ -19669,25 +19726,26 @@
       <sheetName val="on"/>
       <sheetName val="Foglio3"/>
       <sheetName val="Foglio5"/>
+      <sheetName val="Foglio1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>year</v>
           </cell>
           <cell r="C1" t="str">
-            <v>FCO2st RCP 8.5</v>
+            <v>fCO2st RCP 8.5</v>
           </cell>
           <cell r="E1" t="str">
-            <v>FCO2st RCP 6.0</v>
+            <v>fCO2st RCP 6.0</v>
           </cell>
           <cell r="G1" t="str">
-            <v>FCO2st RCP 4.5</v>
+            <v>fCO2st RCP 4.5</v>
           </cell>
           <cell r="I1" t="str">
-            <v>FCO2st RCP 2.6</v>
+            <v>fCO2st RCP 2.6</v>
           </cell>
         </row>
         <row r="2">
@@ -21459,13 +21517,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -21494,18 +21553,6 @@
           <cell r="E1" t="str">
             <v>FCO2 RCP2.6</v>
           </cell>
-          <cell r="R1" t="str">
-            <v>Poli FCO2 8.5 * FT</v>
-          </cell>
-          <cell r="S1" t="str">
-            <v>Poli FCO2 6.0 * FT</v>
-          </cell>
-          <cell r="T1" t="str">
-            <v>Poli FCO2 4.5 * FT</v>
-          </cell>
-          <cell r="U1" t="str">
-            <v>Poli FCO2 2.6 * FT</v>
-          </cell>
         </row>
         <row r="2">
           <cell r="B2">
@@ -21520,18 +21567,6 @@
           <cell r="E2">
             <v>1.0164893012773204</v>
           </cell>
-          <cell r="R2">
-            <v>0.10269066614853627</v>
-          </cell>
-          <cell r="S2">
-            <v>0.10656094424804383</v>
-          </cell>
-          <cell r="T2">
-            <v>0.10779045248407523</v>
-          </cell>
-          <cell r="U2">
-            <v>0.10769636837557892</v>
-          </cell>
         </row>
         <row r="3">
           <cell r="B3">
@@ -21546,18 +21581,6 @@
           <cell r="E3">
             <v>1.0190193392550679</v>
           </cell>
-          <cell r="R3">
-            <v>0.21052307596844133</v>
-          </cell>
-          <cell r="S3">
-            <v>0.21376605018104891</v>
-          </cell>
-          <cell r="T3">
-            <v>0.21357895551493697</v>
-          </cell>
-          <cell r="U3">
-            <v>0.21070601297530636</v>
-          </cell>
         </row>
         <row r="4">
           <cell r="B4">
@@ -21572,18 +21595,6 @@
           <cell r="E4">
             <v>1.0218505689158144</v>
           </cell>
-          <cell r="R4">
-            <v>0.3222474175201363</v>
-          </cell>
-          <cell r="S4">
-            <v>0.32079353312865533</v>
-          </cell>
-          <cell r="T4">
-            <v>0.31688621882655005</v>
-          </cell>
-          <cell r="U4">
-            <v>0.3088535075636174</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="B5">
@@ -21598,18 +21609,6 @@
           <cell r="E5">
             <v>1.0249962025499806</v>
           </cell>
-          <cell r="R5">
-            <v>0.43664579170931722</v>
-          </cell>
-          <cell r="S5">
-            <v>0.42684761848183944</v>
-          </cell>
-          <cell r="T5">
-            <v>0.4172454087189113</v>
-          </cell>
-          <cell r="U5">
-            <v>0.40196809702262803</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="B6">
@@ -21624,18 +21623,6 @@
           <cell r="E6">
             <v>1.0284640397788563</v>
           </cell>
-          <cell r="R6">
-            <v>0.55253213589193628</v>
-          </cell>
-          <cell r="S6">
-            <v>0.53115850388373798</v>
-          </cell>
-          <cell r="T6">
-            <v>0.51420208915723387</v>
-          </cell>
-          <cell r="U6">
-            <v>0.48988364562790593</v>
-          </cell>
         </row>
         <row r="7">
           <cell r="B7">
@@ -21650,18 +21637,6 @@
           <cell r="E7">
             <v>1.0322550707659799</v>
           </cell>
-          <cell r="R7">
-            <v>0.66875213337620043</v>
-          </cell>
-          <cell r="S7">
-            <v>0.63298231229260338</v>
-          </cell>
-          <cell r="T7">
-            <v>0.6073141536446518</v>
-          </cell>
-          <cell r="U7">
-            <v>0.57243857808814458</v>
-          </cell>
         </row>
         <row r="8">
           <cell r="B8">
@@ -21676,18 +21651,6 @@
           <cell r="E8">
             <v>1.036362207919842</v>
           </cell>
-          <cell r="R8">
-            <v>0.78418310637020816</v>
-          </cell>
-          <cell r="S8">
-            <v>0.73160103425004808</v>
-          </cell>
-          <cell r="T8">
-            <v>0.69615174629226229</v>
-          </cell>
-          <cell r="U8">
-            <v>0.64947581213062244</v>
-          </cell>
         </row>
         <row r="9">
           <cell r="B9">
@@ -21702,18 +21665,6 @@
           <cell r="E9">
             <v>1.0407692962504183</v>
           </cell>
-          <cell r="R9">
-            <v>0.89773388940934873</v>
-          </cell>
-          <cell r="S9">
-            <v>0.8263224573297332</v>
-          </cell>
-          <cell r="T9">
-            <v>0.78029717018015432</v>
-          </cell>
-          <cell r="U9">
-            <v>0.72084268115972672</v>
-          </cell>
         </row>
         <row r="10">
           <cell r="B10">
@@ -21728,18 +21679,6 @@
           <cell r="E10">
             <v>1.0454505585049092</v>
           </cell>
-          <cell r="R10">
-            <v>1.0083446796526061</v>
-          </cell>
-          <cell r="S10">
-            <v>0.91648008029161765</v>
-          </cell>
-          <cell r="T10">
-            <v>0.85934478068905162</v>
-          </cell>
-          <cell r="U10">
-            <v>0.78639084519652014</v>
-          </cell>
         </row>
         <row r="11">
           <cell r="B11">
@@ -21754,18 +21693,6 @@
           <cell r="E11">
             <v>1.0503706132614103</v>
           </cell>
-          <cell r="R11">
-            <v>1.1149868596219996</v>
-          </cell>
-          <cell r="S11">
-            <v>1.0014330088966723</v>
-          </cell>
-          <cell r="T11">
-            <v>0.932900860958922</v>
-          </cell>
-          <cell r="U11">
-            <v>0.84597618790368878</v>
-          </cell>
         </row>
         <row r="12">
           <cell r="B12">
@@ -21780,18 +21707,6 @@
           <cell r="E12">
             <v>1.055485158759734</v>
           </cell>
-          <cell r="R12">
-            <v>1.2166627869212041</v>
-          </cell>
-          <cell r="S12">
-            <v>1.0805658296085574</v>
-          </cell>
-          <cell r="T12">
-            <v>1.0005834759639984</v>
-          </cell>
-          <cell r="U12">
-            <v>0.89945869698567082</v>
-          </cell>
         </row>
         <row r="13">
           <cell r="B13">
@@ -21806,18 +21721,6 @@
           <cell r="E13">
             <v>1.0607423447427673</v>
           </cell>
-          <cell r="R13">
-            <v>1.3124055441347342</v>
-          </cell>
-          <cell r="S13">
-            <v>1.1532884564698214</v>
-          </cell>
-          <cell r="T13">
-            <v>1.0620223008359335</v>
-          </cell>
-          <cell r="U13">
-            <v>0.94670232459183112</v>
-          </cell>
         </row>
         <row r="14">
           <cell r="B14">
@@ -21832,18 +21735,6 @@
           <cell r="E14">
             <v>1.0660847683201939</v>
           </cell>
-          <cell r="R14">
-            <v>1.4012786403766351</v>
-          </cell>
-          <cell r="S14">
-            <v>1.2190359452181776</v>
-          </cell>
-          <cell r="T14">
-            <v>1.1168584179528946</v>
-          </cell>
-          <cell r="U14">
-            <v>0.98757482349063552</v>
-          </cell>
         </row>
         <row r="15">
           <cell r="B15">
@@ -21858,18 +21749,6 @@
           <cell r="E15">
             <v>1.0714519431390537</v>
           </cell>
-          <cell r="R15">
-            <v>1.4823756536850345</v>
-          </cell>
-          <cell r="S15">
-            <v>1.2772682671012361</v>
-          </cell>
-          <cell r="T15">
-            <v>1.1647440758504022</v>
-          </cell>
-          <cell r="U15">
-            <v>1.0219475536537745</v>
-          </cell>
         </row>
         <row r="16">
           <cell r="B16">
@@ -21884,18 +21763,6 @@
           <cell r="E16">
             <v>1.0916540083795037</v>
           </cell>
-          <cell r="R16">
-            <v>1.5548198004436804</v>
-          </cell>
-          <cell r="S16">
-            <v>1.3274700327102424</v>
-          </cell>
-          <cell r="T16">
-            <v>1.2053424010688185</v>
-          </cell>
-          <cell r="U16">
-            <v>1.049695252389772</v>
-          </cell>
         </row>
         <row r="17">
           <cell r="B17">
@@ -21910,18 +21777,6 @@
           <cell r="E17">
             <v>1.0941292121793866</v>
           </cell>
-          <cell r="R17">
-            <v>1.6177634139609984</v>
-          </cell>
-          <cell r="S17">
-            <v>1.3691501532741635</v>
-          </cell>
-          <cell r="T17">
-            <v>1.2383270514433227</v>
-          </cell>
-          <cell r="U17">
-            <v>1.0706957591501898</v>
-          </cell>
         </row>
         <row r="18">
           <cell r="B18">
@@ -21936,18 +21791,6 @@
           <cell r="E18">
             <v>1.0965308414460497</v>
           </cell>
-          <cell r="R18">
-            <v>1.6703873088214116</v>
-          </cell>
-          <cell r="S18">
-            <v>1.4018414229250769</v>
-          </cell>
-          <cell r="T18">
-            <v>1.2633817957869888</v>
-          </cell>
-          <cell r="U18">
-            <v>1.0848296833825659</v>
-          </cell>
         </row>
         <row r="19">
           <cell r="B19">
@@ -21962,18 +21805,6 @@
           <cell r="E19">
             <v>1.0988554666812143</v>
           </cell>
-          <cell r="R19">
-            <v>1.7119</v>
-          </cell>
-          <cell r="S19">
-            <v>1.4251</v>
-          </cell>
-          <cell r="T19">
-            <v>1.2802000000000002</v>
-          </cell>
-          <cell r="U19">
-            <v>1.09198</v>
-          </cell>
         </row>
         <row r="20">
           <cell r="B20">
@@ -21988,18 +21819,6 @@
           <cell r="E20">
             <v>1.1011003781011028</v>
           </cell>
-          <cell r="R20">
-            <v>1.7415367350199094</v>
-          </cell>
-          <cell r="S20">
-            <v>1.4385047577741581</v>
-          </cell>
-          <cell r="T20">
-            <v>1.2884839927232186</v>
-          </cell>
-          <cell r="U20">
-            <v>1.0920315516850843</v>
-          </cell>
         </row>
         <row r="21">
           <cell r="B21">
@@ -22014,18 +21833,6 @@
           <cell r="E21">
             <v>1.1032635577033445</v>
           </cell>
-          <cell r="R21">
-            <v>1.7585582821050041</v>
-          </cell>
-          <cell r="S21">
-            <v>1.4416564640195013</v>
-          </cell>
-          <cell r="T21">
-            <v>1.28794427375186</v>
-          </cell>
-          <cell r="U21">
-            <v>1.0848704295768197</v>
-          </cell>
         </row>
         <row r="22">
           <cell r="B22">
@@ -22040,18 +21847,6 @@
           <cell r="E22">
             <v>1.1053436426858749</v>
           </cell>
-          <cell r="R22">
-            <v>1.762249394900129</v>
-          </cell>
-          <cell r="S22">
-            <v>1.4341767326806398</v>
-          </cell>
-          <cell r="T22">
-            <v>1.2782985139529073</v>
-          </cell>
-          <cell r="U22">
-            <v>1.0703831926741967</v>
-          </cell>
         </row>
         <row r="23">
           <cell r="B23">
@@ -22066,18 +21861,6 @@
           <cell r="E23">
             <v>1.1073398820499549</v>
           </cell>
-          <cell r="R23">
-            <v>1.7519168409000241</v>
-          </cell>
-          <cell r="S23">
-            <v>1.4157066668517388</v>
-          </cell>
-          <cell r="T23">
-            <v>1.2592702737914616</v>
-          </cell>
-          <cell r="U23">
-            <v>1.0484558695109591</v>
-          </cell>
         </row>
         <row r="24">
           <cell r="B24">
@@ -22092,18 +21875,6 @@
           <cell r="E24">
             <v>1.1092520881758174</v>
           </cell>
-          <cell r="R24">
-            <v>1.7268868294883433</v>
-          </cell>
-          <cell r="S24">
-            <v>1.3859050752020248</v>
-          </cell>
-          <cell r="T24">
-            <v>1.2305873343741951</v>
-          </cell>
-          <cell r="U24">
-            <v>1.0189726598963966</v>
-          </cell>
         </row>
         <row r="25">
           <cell r="B25">
@@ -22118,18 +21889,6 @@
           <cell r="E25">
             <v>1.1110805850557373</v>
           </cell>
-          <cell r="R25">
-            <v>1.6865015946212947</v>
-          </cell>
-          <cell r="S25">
-            <v>1.344446085413999</v>
-          </cell>
-          <cell r="T25">
-            <v>1.1919794824727625</v>
-          </cell>
-          <cell r="U25">
-            <v>0.98181421379237277</v>
-          </cell>
         </row>
         <row r="26">
           <cell r="B26">
@@ -22144,18 +21903,6 @@
           <cell r="E26">
             <v>1.1128261547204996</v>
           </cell>
-          <cell r="R26">
-            <v>1.6301147551969049</v>
-          </cell>
-          <cell r="S26">
-            <v>1.2910158823613334</v>
-          </cell>
-          <cell r="T26">
-            <v>1.1431755052962962</v>
-          </cell>
-          <cell r="U26">
-            <v>0.93685529780428101</v>
-          </cell>
         </row>
         <row r="27">
           <cell r="B27">
@@ -22170,18 +21917,6 @@
           <cell r="E27">
             <v>1.1144899832159141</v>
           </cell>
-          <cell r="R27">
-            <v>1.5570848521098464</v>
-          </cell>
-          <cell r="S27">
-            <v>1.2253081357203255</v>
-          </cell>
-          <cell r="T27">
-            <v>1.0838990051674853</v>
-          </cell>
-          <cell r="U27">
-            <v>0.8839615465180406</v>
-          </cell>
         </row>
         <row r="28">
           <cell r="B28">
@@ -22196,18 +21931,6 @@
           <cell r="E28">
             <v>1.1160736072895976</v>
           </cell>
-          <cell r="R28">
-            <v>1.4667660627715327</v>
-          </cell>
-          <cell r="S28">
-            <v>1.1470173912866359</v>
-          </cell>
-          <cell r="T28">
-            <v>1.013862385136503</v>
-          </cell>
-          <cell r="U28">
-            <v>0.82298479423073989</v>
-          </cell>
         </row>
         <row r="29">
           <cell r="B29">
@@ -22222,18 +21945,6 @@
           <cell r="E29">
             <v>1.1175788627463055</v>
           </cell>
-          <cell r="R29">
-            <v>1.3584943458972811</v>
-          </cell>
-          <cell r="S29">
-            <v>1.0558291535724522</v>
-          </cell>
-          <cell r="T29">
-            <v>0.93275786927674031</v>
-          </cell>
-          <cell r="U29">
-            <v>0.75375610302006846</v>
-          </cell>
         </row>
         <row r="30">
           <cell r="B30">
@@ -22248,18 +21959,6 @@
           <cell r="E30">
             <v>1.1190078352320743</v>
           </cell>
-          <cell r="R30">
-            <v>1.2315657664533155</v>
-          </cell>
-          <cell r="S30">
-            <v>0.95140428638835206</v>
-          </cell>
-          <cell r="T30">
-            <v>0.84024344107225368</v>
-          </cell>
-          <cell r="U30">
-            <v>0.67607483873225094</v>
-          </cell>
         </row>
         <row r="31">
           <cell r="B31">
@@ -22274,18 +21973,6 @@
           <cell r="E31">
             <v>1.1203628140206618</v>
           </cell>
-          <cell r="R31">
-            <v>1.0852004646212983</v>
-          </cell>
-          <cell r="S31">
-            <v>0.83335294587729458</v>
-          </cell>
-          <cell r="T31">
-            <v>0.73591943706320795</v>
-          </cell>
-          <cell r="U31">
-            <v>0.58969047149247067</v>
-          </cell>
         </row>
         <row r="32">
           <cell r="B32">
@@ -22300,18 +21987,6 @@
           <cell r="E32">
             <v>1.1216462492053472</v>
           </cell>
-          <cell r="R32">
-            <v>0.91847771545859103</v>
-          </cell>
-          <cell r="S32">
-            <v>0.70118736231065382</v>
-          </cell>
-          <cell r="T32">
-            <v>0.61928628942849884</v>
-          </cell>
-          <cell r="U32">
-            <v>0.49426968123497644</v>
-          </cell>
         </row>
         <row r="33">
           <cell r="B33">
@@ -22326,18 +22001,6 @@
           <cell r="E33">
             <v>1.1228607125483316</v>
           </cell>
-          <cell r="R33">
-            <v>0.73020481267939252</v>
-          </cell>
-          <cell r="S33">
-            <v>0.55422604011049337</v>
-          </cell>
-          <cell r="T33">
-            <v>0.48965903462732241</v>
-          </cell>
-          <cell r="U33">
-            <v>0.38932971556674167</v>
-          </cell>
         </row>
         <row r="34">
           <cell r="B34">
@@ -22352,18 +22015,6 @@
           <cell r="E34">
             <v>1.1240088621103965</v>
           </cell>
-          <cell r="R34">
-            <v>0.5186022910587369</v>
-          </cell>
-          <cell r="S34">
-            <v>0.39136266388342822</v>
-          </cell>
-          <cell r="T34">
-            <v>0.34596158270919158</v>
-          </cell>
-          <cell r="U34">
-            <v>0.27407775209881097</v>
-          </cell>
         </row>
         <row r="35">
           <cell r="B35">
@@ -22378,18 +22029,6 @@
           <cell r="E35">
             <v>1.1250934106753725</v>
           </cell>
-          <cell r="R35">
-            <v>0.28027424469747936</v>
-          </cell>
-          <cell r="S35">
-            <v>0.21030647352804691</v>
-          </cell>
-          <cell r="T35">
-            <v>0.18605184653343881</v>
-          </cell>
-          <cell r="U35">
-            <v>0.146882899840484</v>
-          </cell>
         </row>
         <row r="36">
           <cell r="B36">
@@ -22404,18 +22043,6 @@
           <cell r="E36">
             <v>1.1261170978966748</v>
           </cell>
-          <cell r="R36">
-            <v>0</v>
-          </cell>
-          <cell r="S36">
-            <v>0</v>
-          </cell>
-          <cell r="T36">
-            <v>0</v>
-          </cell>
-          <cell r="U36">
-            <v>0</v>
-          </cell>
         </row>
         <row r="37">
           <cell r="B37">
@@ -22430,18 +22057,6 @@
           <cell r="E37">
             <v>1.1270826660251934</v>
           </cell>
-          <cell r="R37">
-            <v>0</v>
-          </cell>
-          <cell r="S37">
-            <v>0</v>
-          </cell>
-          <cell r="T37">
-            <v>0</v>
-          </cell>
-          <cell r="U37">
-            <v>0</v>
-          </cell>
         </row>
         <row r="38">
           <cell r="B38">
@@ -22456,18 +22071,6 @@
           <cell r="E38">
             <v>1.1279928390272951</v>
           </cell>
-          <cell r="R38">
-            <v>0</v>
-          </cell>
-          <cell r="S38">
-            <v>0</v>
-          </cell>
-          <cell r="T38">
-            <v>0</v>
-          </cell>
-          <cell r="U38">
-            <v>0</v>
-          </cell>
         </row>
         <row r="39">
           <cell r="B39">
@@ -22482,18 +22085,6 @@
           <cell r="E39">
             <v>1.1288503048664498</v>
           </cell>
-          <cell r="R39">
-            <v>0</v>
-          </cell>
-          <cell r="S39">
-            <v>0</v>
-          </cell>
-          <cell r="T39">
-            <v>0</v>
-          </cell>
-          <cell r="U39">
-            <v>0</v>
-          </cell>
         </row>
         <row r="40">
           <cell r="B40">
@@ -22508,18 +22099,6 @@
           <cell r="E40">
             <v>1.1296577006997475</v>
           </cell>
-          <cell r="R40">
-            <v>0</v>
-          </cell>
-          <cell r="S40">
-            <v>0</v>
-          </cell>
-          <cell r="T40">
-            <v>0</v>
-          </cell>
-          <cell r="U40">
-            <v>0</v>
-          </cell>
         </row>
         <row r="41">
           <cell r="B41">
@@ -22534,18 +22113,6 @@
           <cell r="E41">
             <v>1.130417600729188</v>
           </cell>
-          <cell r="R41">
-            <v>0</v>
-          </cell>
-          <cell r="S41">
-            <v>0</v>
-          </cell>
-          <cell r="T41">
-            <v>0</v>
-          </cell>
-          <cell r="U41">
-            <v>0</v>
-          </cell>
         </row>
         <row r="42">
           <cell r="B42">
@@ -22560,18 +22127,6 @@
           <cell r="E42">
             <v>1.1311325064449413</v>
           </cell>
-          <cell r="R42">
-            <v>0</v>
-          </cell>
-          <cell r="S42">
-            <v>0</v>
-          </cell>
-          <cell r="T42">
-            <v>0</v>
-          </cell>
-          <cell r="U42">
-            <v>0</v>
-          </cell>
         </row>
         <row r="43">
           <cell r="B43">
@@ -22586,18 +22141,6 @@
           <cell r="E43">
             <v>1.1318048390019744</v>
           </cell>
-          <cell r="R43">
-            <v>0</v>
-          </cell>
-          <cell r="S43">
-            <v>0</v>
-          </cell>
-          <cell r="T43">
-            <v>0</v>
-          </cell>
-          <cell r="U43">
-            <v>0</v>
-          </cell>
         </row>
         <row r="44">
           <cell r="B44">
@@ -22612,18 +22155,6 @@
           <cell r="E44">
             <v>1.1324369334808082</v>
           </cell>
-          <cell r="R44">
-            <v>0</v>
-          </cell>
-          <cell r="S44">
-            <v>0</v>
-          </cell>
-          <cell r="T44">
-            <v>0</v>
-          </cell>
-          <cell r="U44">
-            <v>0</v>
-          </cell>
         </row>
         <row r="45">
           <cell r="B45">
@@ -22638,18 +22169,6 @@
           <cell r="E45">
             <v>1.1330310347962775</v>
           </cell>
-          <cell r="R45">
-            <v>0</v>
-          </cell>
-          <cell r="S45">
-            <v>0</v>
-          </cell>
-          <cell r="T45">
-            <v>0</v>
-          </cell>
-          <cell r="U45">
-            <v>0</v>
-          </cell>
         </row>
         <row r="46">
           <cell r="B46">
@@ -22663,18 +22182,6 @@
           </cell>
           <cell r="E46">
             <v>1.1335892950338029</v>
-          </cell>
-          <cell r="R46">
-            <v>0</v>
-          </cell>
-          <cell r="S46">
-            <v>0</v>
-          </cell>
-          <cell r="T46">
-            <v>0</v>
-          </cell>
-          <cell r="U46">
-            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -28965,7 +28472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
@@ -34642,7 +34149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R1" sqref="R1:R46"/>
     </sheetView>
   </sheetViews>
@@ -36521,7 +36028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -38400,8 +37907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38417,16 +37924,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -39384,8 +38891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39439,7 +38946,7 @@
         <v>42</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>43</v>
@@ -39454,16 +38961,16 @@
         <v>46</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -39546,7 +39053,7 @@
         <v>1.00732</v>
       </c>
       <c r="M3" s="13">
-        <f>((A3-$J$2)/($K$2-$J$2))*(($L$2-A3)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
+        <f t="shared" ref="M3:M37" si="0">((A3-$J$2)/($K$2-$J$2))*(($L$2-A3)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
         <v>0.10691375965490502</v>
       </c>
       <c r="N3" s="13">
@@ -39570,15 +39077,15 @@
         <v>0.10269066614853627</v>
       </c>
       <c r="S3" s="13">
-        <f t="shared" ref="S3:U18" si="0">$M3*G3</f>
+        <f t="shared" ref="S3:U18" si="1">$M3*G3</f>
         <v>0.10656094424804383</v>
       </c>
       <c r="T3" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10779045248407523</v>
       </c>
       <c r="U3" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10769636837557892</v>
       </c>
     </row>
@@ -39599,55 +39106,55 @@
         <v>1.0190193392550679</v>
       </c>
       <c r="F4" s="13">
-        <f t="shared" ref="F4:F47" si="1">(-0.0005*(A4^2))+(0.0537*A4)+0.9073</f>
+        <f t="shared" ref="F4:F47" si="2">(-0.0005*(A4^2))+(0.0537*A4)+0.9073</f>
         <v>1.0126999999999999</v>
       </c>
       <c r="G4" s="13">
-        <f t="shared" ref="G4:G47" si="2">(-0.0004*(A4^2))+(0.0328*A4)+0.9643</f>
+        <f t="shared" ref="G4:G47" si="3">(-0.0004*(A4^2))+(0.0328*A4)+0.9643</f>
         <v>1.0283</v>
       </c>
       <c r="H4" s="13">
-        <f t="shared" ref="H4:H47" si="3">(-0.0002*(A4^2))+(0.0198*A4)+0.9886</f>
+        <f t="shared" ref="H4:H47" si="4">(-0.0002*(A4^2))+(0.0198*A4)+0.9886</f>
         <v>1.0274000000000001</v>
       </c>
       <c r="I4" s="13">
-        <f t="shared" ref="I4:I47" si="4">(-0.00008*(A4^2))+(0.0065*A4)+1.0009</f>
+        <f t="shared" ref="I4:I47" si="5">(-0.00008*(A4^2))+(0.0065*A4)+1.0009</f>
         <v>1.0135799999999999</v>
       </c>
       <c r="M4" s="13">
-        <f>((A4-$J$2)/($K$2-$J$2))*(($L$2-A4)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
+        <f t="shared" si="0"/>
         <v>0.20788296234663903</v>
       </c>
       <c r="N4" s="13">
-        <f t="shared" ref="N4:N47" si="5">B4*$M4</f>
+        <f t="shared" ref="N4:N47" si="6">B4*$M4</f>
         <v>0.22847024444175737</v>
       </c>
       <c r="O4" s="13">
-        <f>C4*$M4</f>
+        <f t="shared" ref="O4:O47" si="7">C4*$M4</f>
         <v>0.22277320567547954</v>
       </c>
       <c r="P4" s="13">
-        <f>D4*$M4</f>
+        <f t="shared" ref="P4:P47" si="8">D4*$M4</f>
         <v>0.21814397175779759</v>
       </c>
       <c r="Q4" s="13">
-        <f>E4*$M4</f>
+        <f t="shared" ref="Q4:Q47" si="9">E4*$M4</f>
         <v>0.21183675893285828</v>
       </c>
       <c r="R4" s="13">
-        <f t="shared" ref="R4:U47" si="6">$M4*F4</f>
+        <f t="shared" ref="R4:U47" si="10">$M4*F4</f>
         <v>0.21052307596844133</v>
       </c>
       <c r="S4" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21376605018104891</v>
       </c>
       <c r="T4" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21357895551493697</v>
       </c>
       <c r="U4" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21070601297530636</v>
       </c>
     </row>
@@ -39668,55 +39175,55 @@
         <v>1.0218505689158144</v>
       </c>
       <c r="F5" s="13">
+        <f t="shared" si="2"/>
+        <v>1.0639000000000001</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" si="3"/>
+        <v>1.0591000000000002</v>
+      </c>
+      <c r="H5" s="13">
+        <f t="shared" si="4"/>
+        <v>1.0462</v>
+      </c>
+      <c r="I5" s="13">
+        <f t="shared" si="5"/>
+        <v>1.0196799999999999</v>
+      </c>
+      <c r="M5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.30289258155854526</v>
+      </c>
+      <c r="N5" s="13">
+        <f t="shared" si="6"/>
+        <v>0.33776180405948852</v>
+      </c>
+      <c r="O5" s="13">
+        <f t="shared" si="7"/>
+        <v>0.3280108319421749</v>
+      </c>
+      <c r="P5" s="13">
+        <f t="shared" si="8"/>
+        <v>0.32014525064070271</v>
+      </c>
+      <c r="Q5" s="13">
+        <f t="shared" si="9"/>
+        <v>0.30951095678597917</v>
+      </c>
+      <c r="R5" s="13">
+        <f t="shared" si="10"/>
+        <v>0.3222474175201363</v>
+      </c>
+      <c r="S5" s="13">
         <f t="shared" si="1"/>
-        <v>1.0639000000000001</v>
-      </c>
-      <c r="G5" s="13">
-        <f t="shared" si="2"/>
-        <v>1.0591000000000002</v>
-      </c>
-      <c r="H5" s="13">
-        <f t="shared" si="3"/>
-        <v>1.0462</v>
-      </c>
-      <c r="I5" s="13">
-        <f t="shared" si="4"/>
-        <v>1.0196799999999999</v>
-      </c>
-      <c r="M5" s="13">
-        <f>((A5-$J$2)/($K$2-$J$2))*(($L$2-A5)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
-        <v>0.30289258155854526</v>
-      </c>
-      <c r="N5" s="13">
-        <f t="shared" si="5"/>
-        <v>0.33776180405948852</v>
-      </c>
-      <c r="O5" s="13">
-        <f>C5*$M5</f>
-        <v>0.3280108319421749</v>
-      </c>
-      <c r="P5" s="13">
-        <f>D5*$M5</f>
-        <v>0.32014525064070271</v>
-      </c>
-      <c r="Q5" s="13">
-        <f>E5*$M5</f>
-        <v>0.30951095678597917</v>
-      </c>
-      <c r="R5" s="13">
-        <f t="shared" si="6"/>
-        <v>0.3222474175201363</v>
-      </c>
-      <c r="S5" s="13">
-        <f t="shared" si="0"/>
         <v>0.32079353312865533</v>
       </c>
       <c r="T5" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.31688621882655005</v>
       </c>
       <c r="U5" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3088535075636174</v>
       </c>
     </row>
@@ -39737,55 +39244,55 @@
         <v>1.0249962025499806</v>
       </c>
       <c r="F6" s="13">
+        <f t="shared" si="2"/>
+        <v>1.1141000000000001</v>
+      </c>
+      <c r="G6" s="13">
+        <f t="shared" si="3"/>
+        <v>1.0891</v>
+      </c>
+      <c r="H6" s="13">
+        <f t="shared" si="4"/>
+        <v>1.0646</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" si="5"/>
+        <v>1.02562</v>
+      </c>
+      <c r="M6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.39192692909910887</v>
+      </c>
+      <c r="N6" s="13">
+        <f t="shared" si="6"/>
+        <v>0.44422847726651843</v>
+      </c>
+      <c r="O6" s="13">
+        <f t="shared" si="7"/>
+        <v>0.42943029997750648</v>
+      </c>
+      <c r="P6" s="13">
+        <f t="shared" si="8"/>
+        <v>0.41759170730245354</v>
+      </c>
+      <c r="Q6" s="13">
+        <f t="shared" si="9"/>
+        <v>0.40172361400366208</v>
+      </c>
+      <c r="R6" s="13">
+        <f t="shared" si="10"/>
+        <v>0.43664579170931722</v>
+      </c>
+      <c r="S6" s="13">
         <f t="shared" si="1"/>
-        <v>1.1141000000000001</v>
-      </c>
-      <c r="G6" s="13">
-        <f t="shared" si="2"/>
-        <v>1.0891</v>
-      </c>
-      <c r="H6" s="13">
-        <f t="shared" si="3"/>
-        <v>1.0646</v>
-      </c>
-      <c r="I6" s="13">
-        <f t="shared" si="4"/>
-        <v>1.02562</v>
-      </c>
-      <c r="M6" s="13">
-        <f>((A6-$J$2)/($K$2-$J$2))*(($L$2-A6)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
-        <v>0.39192692909910887</v>
-      </c>
-      <c r="N6" s="13">
-        <f t="shared" si="5"/>
-        <v>0.44422847726651843</v>
-      </c>
-      <c r="O6" s="13">
-        <f>C6*$M6</f>
-        <v>0.42943029997750648</v>
-      </c>
-      <c r="P6" s="13">
-        <f>D6*$M6</f>
-        <v>0.41759170730245354</v>
-      </c>
-      <c r="Q6" s="13">
-        <f>E6*$M6</f>
-        <v>0.40172361400366208</v>
-      </c>
-      <c r="R6" s="13">
-        <f t="shared" si="6"/>
-        <v>0.43664579170931722</v>
-      </c>
-      <c r="S6" s="13">
-        <f t="shared" si="0"/>
         <v>0.42684761848183944</v>
       </c>
       <c r="T6" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4172454087189113</v>
       </c>
       <c r="U6" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40196809702262803</v>
       </c>
     </row>
@@ -39806,55 +39313,55 @@
         <v>1.0284640397788563</v>
       </c>
       <c r="F7" s="13">
+        <f t="shared" si="2"/>
+        <v>1.1633</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" si="3"/>
+        <v>1.1183000000000001</v>
+      </c>
+      <c r="H7" s="13">
+        <f t="shared" si="4"/>
+        <v>1.0826</v>
+      </c>
+      <c r="I7" s="13">
+        <f t="shared" si="5"/>
+        <v>1.0313999999999999</v>
+      </c>
+      <c r="M7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.47496960018218537</v>
+      </c>
+      <c r="N7" s="13">
+        <f t="shared" si="6"/>
+        <v>0.54822168834424434</v>
+      </c>
+      <c r="O7" s="13">
+        <f t="shared" si="7"/>
+        <v>0.52722474470918612</v>
+      </c>
+      <c r="P7" s="13">
+        <f t="shared" si="8"/>
+        <v>0.51058248985047094</v>
+      </c>
+      <c r="Q7" s="13">
+        <f t="shared" si="9"/>
+        <v>0.48848915377551855</v>
+      </c>
+      <c r="R7" s="13">
+        <f t="shared" si="10"/>
+        <v>0.55253213589193628</v>
+      </c>
+      <c r="S7" s="13">
         <f t="shared" si="1"/>
-        <v>1.1633</v>
-      </c>
-      <c r="G7" s="13">
-        <f t="shared" si="2"/>
-        <v>1.1183000000000001</v>
-      </c>
-      <c r="H7" s="13">
-        <f t="shared" si="3"/>
-        <v>1.0826</v>
-      </c>
-      <c r="I7" s="13">
-        <f t="shared" si="4"/>
-        <v>1.0313999999999999</v>
-      </c>
-      <c r="M7" s="13">
-        <f>((A7-$J$2)/($K$2-$J$2))*(($L$2-A7)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
-        <v>0.47496960018218537</v>
-      </c>
-      <c r="N7" s="13">
-        <f t="shared" si="5"/>
-        <v>0.54822168834424434</v>
-      </c>
-      <c r="O7" s="13">
-        <f>C7*$M7</f>
-        <v>0.52722474470918612</v>
-      </c>
-      <c r="P7" s="13">
-        <f>D7*$M7</f>
-        <v>0.51058248985047094</v>
-      </c>
-      <c r="Q7" s="13">
-        <f>E7*$M7</f>
-        <v>0.48848915377551855</v>
-      </c>
-      <c r="R7" s="13">
-        <f t="shared" si="6"/>
-        <v>0.55253213589193628</v>
-      </c>
-      <c r="S7" s="13">
-        <f t="shared" si="0"/>
         <v>0.53115850388373798</v>
       </c>
       <c r="T7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.51420208915723387</v>
       </c>
       <c r="U7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.48988364562790593</v>
       </c>
     </row>
@@ -39875,55 +39382,55 @@
         <v>1.0322550707659799</v>
       </c>
       <c r="F8" s="13">
+        <f t="shared" si="2"/>
+        <v>1.2115</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" si="3"/>
+        <v>1.1467000000000001</v>
+      </c>
+      <c r="H8" s="13">
+        <f t="shared" si="4"/>
+        <v>1.1002000000000001</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="5"/>
+        <v>1.0370199999999998</v>
+      </c>
+      <c r="M8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.55200341178390455</v>
+      </c>
+      <c r="N8" s="13">
+        <f t="shared" si="6"/>
+        <v>0.65007170254031843</v>
+      </c>
+      <c r="O8" s="13">
+        <f t="shared" si="7"/>
+        <v>0.62155668220435356</v>
+      </c>
+      <c r="P8" s="13">
+        <f t="shared" si="8"/>
+        <v>0.59918891787101625</v>
+      </c>
+      <c r="Q8" s="13">
+        <f t="shared" si="9"/>
+        <v>0.56980832089405675</v>
+      </c>
+      <c r="R8" s="13">
+        <f t="shared" si="10"/>
+        <v>0.66875213337620043</v>
+      </c>
+      <c r="S8" s="13">
         <f t="shared" si="1"/>
-        <v>1.2115</v>
-      </c>
-      <c r="G8" s="13">
-        <f t="shared" si="2"/>
-        <v>1.1467000000000001</v>
-      </c>
-      <c r="H8" s="13">
-        <f t="shared" si="3"/>
-        <v>1.1002000000000001</v>
-      </c>
-      <c r="I8" s="13">
-        <f t="shared" si="4"/>
-        <v>1.0370199999999998</v>
-      </c>
-      <c r="M8" s="13">
-        <f>((A8-$J$2)/($K$2-$J$2))*(($L$2-A8)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
-        <v>0.55200341178390455</v>
-      </c>
-      <c r="N8" s="13">
-        <f t="shared" si="5"/>
-        <v>0.65007170254031843</v>
-      </c>
-      <c r="O8" s="13">
-        <f>C8*$M8</f>
-        <v>0.62155668220435356</v>
-      </c>
-      <c r="P8" s="13">
-        <f>D8*$M8</f>
-        <v>0.59918891787101625</v>
-      </c>
-      <c r="Q8" s="13">
-        <f>E8*$M8</f>
-        <v>0.56980832089405675</v>
-      </c>
-      <c r="R8" s="13">
-        <f t="shared" si="6"/>
-        <v>0.66875213337620043</v>
-      </c>
-      <c r="S8" s="13">
-        <f t="shared" si="0"/>
         <v>0.63298231229260338</v>
       </c>
       <c r="T8" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.6073141536446518</v>
       </c>
       <c r="U8" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57243857808814458</v>
       </c>
     </row>
@@ -39944,55 +39451,55 @@
         <v>1.036362207919842</v>
       </c>
       <c r="F9" s="13">
+        <f t="shared" si="2"/>
+        <v>1.2586999999999999</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="3"/>
+        <v>1.1743000000000001</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" si="4"/>
+        <v>1.1173999999999999</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="5"/>
+        <v>1.0424799999999999</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.62301033317725285</v>
+      </c>
+      <c r="N9" s="13">
+        <f t="shared" si="6"/>
+        <v>0.7500661719451589</v>
+      </c>
+      <c r="O9" s="13">
+        <f t="shared" si="7"/>
+        <v>0.71254160350029538</v>
+      </c>
+      <c r="P9" s="13">
+        <f t="shared" si="8"/>
+        <v>0.68344347157635998</v>
+      </c>
+      <c r="Q9" s="13">
+        <f t="shared" si="9"/>
+        <v>0.64566436444845421</v>
+      </c>
+      <c r="R9" s="13">
+        <f t="shared" si="10"/>
+        <v>0.78418310637020816</v>
+      </c>
+      <c r="S9" s="13">
         <f t="shared" si="1"/>
-        <v>1.2586999999999999</v>
-      </c>
-      <c r="G9" s="13">
-        <f t="shared" si="2"/>
-        <v>1.1743000000000001</v>
-      </c>
-      <c r="H9" s="13">
-        <f t="shared" si="3"/>
-        <v>1.1173999999999999</v>
-      </c>
-      <c r="I9" s="13">
-        <f t="shared" si="4"/>
-        <v>1.0424799999999999</v>
-      </c>
-      <c r="M9" s="13">
-        <f>((A9-$J$2)/($K$2-$J$2))*(($L$2-A9)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
-        <v>0.62301033317725285</v>
-      </c>
-      <c r="N9" s="13">
-        <f t="shared" si="5"/>
-        <v>0.7500661719451589</v>
-      </c>
-      <c r="O9" s="13">
-        <f>C9*$M9</f>
-        <v>0.71254160350029538</v>
-      </c>
-      <c r="P9" s="13">
-        <f>D9*$M9</f>
-        <v>0.68344347157635998</v>
-      </c>
-      <c r="Q9" s="13">
-        <f>E9*$M9</f>
-        <v>0.64566436444845421</v>
-      </c>
-      <c r="R9" s="13">
-        <f t="shared" si="6"/>
-        <v>0.78418310637020816</v>
-      </c>
-      <c r="S9" s="13">
-        <f t="shared" si="0"/>
         <v>0.73160103425004808</v>
       </c>
       <c r="T9" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69615174629226229</v>
       </c>
       <c r="U9" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.64947581213062244</v>
       </c>
     </row>
@@ -40013,55 +39520,55 @@
         <v>1.0407692962504183</v>
       </c>
       <c r="F10" s="13">
+        <f t="shared" si="2"/>
+        <v>1.3048999999999999</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="3"/>
+        <v>1.2011000000000001</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="4"/>
+        <v>1.1342000000000001</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="5"/>
+        <v>1.0477799999999999</v>
+      </c>
+      <c r="M10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.68797140731806938</v>
+      </c>
+      <c r="N10" s="13">
+        <f t="shared" si="6"/>
+        <v>0.84842460122141983</v>
+      </c>
+      <c r="O10" s="13">
+        <f t="shared" si="7"/>
+        <v>0.80022994590362806</v>
+      </c>
+      <c r="P10" s="13">
+        <f t="shared" si="8"/>
+        <v>0.76332849173412687</v>
+      </c>
+      <c r="Q10" s="13">
+        <f t="shared" si="9"/>
+        <v>0.71601951743483694</v>
+      </c>
+      <c r="R10" s="13">
+        <f t="shared" si="10"/>
+        <v>0.89773388940934873</v>
+      </c>
+      <c r="S10" s="13">
         <f t="shared" si="1"/>
-        <v>1.3048999999999999</v>
-      </c>
-      <c r="G10" s="13">
-        <f t="shared" si="2"/>
-        <v>1.2011000000000001</v>
-      </c>
-      <c r="H10" s="13">
-        <f t="shared" si="3"/>
-        <v>1.1342000000000001</v>
-      </c>
-      <c r="I10" s="13">
-        <f t="shared" si="4"/>
-        <v>1.0477799999999999</v>
-      </c>
-      <c r="M10" s="13">
-        <f>((A10-$J$2)/($K$2-$J$2))*(($L$2-A10)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
-        <v>0.68797140731806938</v>
-      </c>
-      <c r="N10" s="13">
-        <f t="shared" si="5"/>
-        <v>0.84842460122141983</v>
-      </c>
-      <c r="O10" s="13">
-        <f>C10*$M10</f>
-        <v>0.80022994590362806</v>
-      </c>
-      <c r="P10" s="13">
-        <f>D10*$M10</f>
-        <v>0.76332849173412687</v>
-      </c>
-      <c r="Q10" s="13">
-        <f>E10*$M10</f>
-        <v>0.71601951743483694</v>
-      </c>
-      <c r="R10" s="13">
-        <f t="shared" si="6"/>
-        <v>0.89773388940934873</v>
-      </c>
-      <c r="S10" s="13">
-        <f t="shared" si="0"/>
         <v>0.8263224573297332</v>
       </c>
       <c r="T10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78029717018015432</v>
       </c>
       <c r="U10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.72084268115972672</v>
       </c>
     </row>
@@ -40082,55 +39589,55 @@
         <v>1.0454505585049092</v>
       </c>
       <c r="F11" s="13">
+        <f t="shared" si="2"/>
+        <v>1.3500999999999999</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="3"/>
+        <v>1.2271000000000001</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="4"/>
+        <v>1.1506000000000001</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="5"/>
+        <v>1.0529199999999999</v>
+      </c>
+      <c r="M11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.74686666147145109</v>
+      </c>
+      <c r="N11" s="13">
+        <f t="shared" si="6"/>
+        <v>0.94526941871941317</v>
+      </c>
+      <c r="O11" s="13">
+        <f t="shared" si="7"/>
+        <v>0.8845885166187949</v>
+      </c>
+      <c r="P11" s="13">
+        <f t="shared" si="8"/>
+        <v>0.83876553148808952</v>
+      </c>
+      <c r="Q11" s="13">
+        <f t="shared" si="9"/>
+        <v>0.78081216836402545</v>
+      </c>
+      <c r="R11" s="13">
+        <f t="shared" si="10"/>
+        <v>1.0083446796526061</v>
+      </c>
+      <c r="S11" s="13">
         <f t="shared" si="1"/>
-        <v>1.3500999999999999</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" si="2"/>
-        <v>1.2271000000000001</v>
-      </c>
-      <c r="H11" s="13">
-        <f t="shared" si="3"/>
-        <v>1.1506000000000001</v>
-      </c>
-      <c r="I11" s="13">
-        <f t="shared" si="4"/>
-        <v>1.0529199999999999</v>
-      </c>
-      <c r="M11" s="13">
-        <f>((A11-$J$2)/($K$2-$J$2))*(($L$2-A11)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
-        <v>0.74686666147145109</v>
-      </c>
-      <c r="N11" s="13">
-        <f t="shared" si="5"/>
-        <v>0.94526941871941317</v>
-      </c>
-      <c r="O11" s="13">
-        <f>C11*$M11</f>
-        <v>0.8845885166187949</v>
-      </c>
-      <c r="P11" s="13">
-        <f>D11*$M11</f>
-        <v>0.83876553148808952</v>
-      </c>
-      <c r="Q11" s="13">
-        <f>E11*$M11</f>
-        <v>0.78081216836402545</v>
-      </c>
-      <c r="R11" s="13">
-        <f t="shared" si="6"/>
-        <v>1.0083446796526061</v>
-      </c>
-      <c r="S11" s="13">
-        <f t="shared" si="0"/>
         <v>0.91648008029161765</v>
       </c>
       <c r="T11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.85934478068905162</v>
       </c>
       <c r="U11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78639084519652014</v>
       </c>
     </row>
@@ -40151,55 +39658,55 @@
         <v>1.0503706132614103</v>
       </c>
       <c r="F12" s="13">
+        <f t="shared" si="2"/>
+        <v>1.3942999999999999</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="3"/>
+        <v>1.2523</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="4"/>
+        <v>1.1666000000000001</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="5"/>
+        <v>1.0578999999999998</v>
+      </c>
+      <c r="M12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.79967500510793921</v>
+      </c>
+      <c r="N12" s="13">
+        <f t="shared" si="6"/>
+        <v>1.0405949533122705</v>
+      </c>
+      <c r="O12" s="13">
+        <f t="shared" si="7"/>
+        <v>0.96548285296354897</v>
+      </c>
+      <c r="P12" s="13">
+        <f t="shared" si="8"/>
+        <v>0.9096064907809176</v>
+      </c>
+      <c r="Q12" s="13">
+        <f t="shared" si="9"/>
+        <v>0.83995512552504759</v>
+      </c>
+      <c r="R12" s="13">
+        <f t="shared" si="10"/>
+        <v>1.1149868596219996</v>
+      </c>
+      <c r="S12" s="13">
         <f t="shared" si="1"/>
-        <v>1.3942999999999999</v>
-      </c>
-      <c r="G12" s="13">
-        <f t="shared" si="2"/>
-        <v>1.2523</v>
-      </c>
-      <c r="H12" s="13">
-        <f t="shared" si="3"/>
-        <v>1.1666000000000001</v>
-      </c>
-      <c r="I12" s="13">
-        <f t="shared" si="4"/>
-        <v>1.0578999999999998</v>
-      </c>
-      <c r="M12" s="13">
-        <f>((A12-$J$2)/($K$2-$J$2))*(($L$2-A12)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
-        <v>0.79967500510793921</v>
-      </c>
-      <c r="N12" s="13">
-        <f t="shared" si="5"/>
-        <v>1.0405949533122705</v>
-      </c>
-      <c r="O12" s="13">
-        <f>C12*$M12</f>
-        <v>0.96548285296354897</v>
-      </c>
-      <c r="P12" s="13">
-        <f>D12*$M12</f>
-        <v>0.9096064907809176</v>
-      </c>
-      <c r="Q12" s="13">
-        <f>E12*$M12</f>
-        <v>0.83995512552504759</v>
-      </c>
-      <c r="R12" s="13">
-        <f t="shared" si="6"/>
-        <v>1.1149868596219996</v>
-      </c>
-      <c r="S12" s="13">
-        <f t="shared" si="0"/>
         <v>1.0014330088966723</v>
       </c>
       <c r="T12" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.932900860958922</v>
       </c>
       <c r="U12" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.84597618790368878</v>
       </c>
     </row>
@@ -40220,55 +39727,55 @@
         <v>1.055485158759734</v>
       </c>
       <c r="F13" s="13">
+        <f t="shared" si="2"/>
+        <v>1.4375</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="3"/>
+        <v>1.2766999999999999</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="4"/>
+        <v>1.1822000000000001</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="5"/>
+        <v>1.0627199999999999</v>
+      </c>
+      <c r="M13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.84637411264083762</v>
+      </c>
+      <c r="N13" s="13">
+        <f t="shared" si="6"/>
+        <v>1.1342362940725219</v>
+      </c>
+      <c r="O13" s="13">
+        <f t="shared" si="7"/>
+        <v>1.0426623277816562</v>
+      </c>
+      <c r="P13" s="13">
+        <f t="shared" si="8"/>
+        <v>0.97562773076191889</v>
+      </c>
+      <c r="Q13" s="13">
+        <f t="shared" si="9"/>
+        <v>0.89333531465084348</v>
+      </c>
+      <c r="R13" s="13">
+        <f t="shared" si="10"/>
+        <v>1.2166627869212041</v>
+      </c>
+      <c r="S13" s="13">
         <f t="shared" si="1"/>
-        <v>1.4375</v>
-      </c>
-      <c r="G13" s="13">
-        <f t="shared" si="2"/>
-        <v>1.2766999999999999</v>
-      </c>
-      <c r="H13" s="13">
-        <f t="shared" si="3"/>
-        <v>1.1822000000000001</v>
-      </c>
-      <c r="I13" s="13">
-        <f t="shared" si="4"/>
-        <v>1.0627199999999999</v>
-      </c>
-      <c r="M13" s="13">
-        <f>((A13-$J$2)/($K$2-$J$2))*(($L$2-A13)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
-        <v>0.84637411264083762</v>
-      </c>
-      <c r="N13" s="13">
-        <f t="shared" si="5"/>
-        <v>1.1342362940725219</v>
-      </c>
-      <c r="O13" s="13">
-        <f>C13*$M13</f>
-        <v>1.0426623277816562</v>
-      </c>
-      <c r="P13" s="13">
-        <f>D13*$M13</f>
-        <v>0.97562773076191889</v>
-      </c>
-      <c r="Q13" s="13">
-        <f>E13*$M13</f>
-        <v>0.89333531465084348</v>
-      </c>
-      <c r="R13" s="13">
-        <f t="shared" si="6"/>
-        <v>1.2166627869212041</v>
-      </c>
-      <c r="S13" s="13">
-        <f t="shared" si="0"/>
         <v>1.0805658296085574</v>
       </c>
       <c r="T13" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0005834759639984</v>
       </c>
       <c r="U13" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.89945869698567082</v>
       </c>
     </row>
@@ -40289,55 +39796,55 @@
         <v>1.0607423447427673</v>
       </c>
       <c r="F14" s="13">
+        <f t="shared" si="2"/>
+        <v>1.4797</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="3"/>
+        <v>1.3003</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="4"/>
+        <v>1.1974</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="5"/>
+        <v>1.06738</v>
+      </c>
+      <c r="M14" s="13">
+        <f t="shared" si="0"/>
+        <v>0.88694028798725022</v>
+      </c>
+      <c r="N14" s="13">
+        <f t="shared" si="6"/>
+        <v>1.225840652574326</v>
+      </c>
+      <c r="O14" s="13">
+        <f t="shared" si="7"/>
+        <v>1.1157499527498185</v>
+      </c>
+      <c r="P14" s="13">
+        <f t="shared" si="8"/>
+        <v>1.0365282559129536</v>
+      </c>
+      <c r="Q14" s="13">
+        <f t="shared" si="9"/>
+        <v>0.94081512072642104</v>
+      </c>
+      <c r="R14" s="13">
+        <f t="shared" si="10"/>
+        <v>1.3124055441347342</v>
+      </c>
+      <c r="S14" s="13">
         <f t="shared" si="1"/>
-        <v>1.4797</v>
-      </c>
-      <c r="G14" s="13">
-        <f t="shared" si="2"/>
-        <v>1.3003</v>
-      </c>
-      <c r="H14" s="13">
-        <f t="shared" si="3"/>
-        <v>1.1974</v>
-      </c>
-      <c r="I14" s="13">
-        <f t="shared" si="4"/>
-        <v>1.06738</v>
-      </c>
-      <c r="M14" s="13">
-        <f>((A14-$J$2)/($K$2-$J$2))*(($L$2-A14)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
-        <v>0.88694028798725022</v>
-      </c>
-      <c r="N14" s="13">
-        <f t="shared" si="5"/>
-        <v>1.225840652574326</v>
-      </c>
-      <c r="O14" s="13">
-        <f>C14*$M14</f>
-        <v>1.1157499527498185</v>
-      </c>
-      <c r="P14" s="13">
-        <f>D14*$M14</f>
-        <v>1.0365282559129536</v>
-      </c>
-      <c r="Q14" s="13">
-        <f>E14*$M14</f>
-        <v>0.94081512072642104</v>
-      </c>
-      <c r="R14" s="13">
-        <f t="shared" si="6"/>
-        <v>1.3124055441347342</v>
-      </c>
-      <c r="S14" s="13">
-        <f t="shared" si="0"/>
         <v>1.1532884564698214</v>
       </c>
       <c r="T14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0620223008359335</v>
       </c>
       <c r="U14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.94670232459183112</v>
       </c>
     </row>
@@ -40358,55 +39865,55 @@
         <v>1.0660847683201939</v>
       </c>
       <c r="F15" s="13">
+        <f t="shared" si="2"/>
+        <v>1.5208999999999999</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="3"/>
+        <v>1.3231000000000002</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="4"/>
+        <v>1.2122000000000002</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="5"/>
+        <v>1.0718799999999999</v>
+      </c>
+      <c r="M15" s="13">
+        <f t="shared" si="0"/>
+        <v>0.92134830717117178</v>
+      </c>
+      <c r="N15" s="13">
+        <f t="shared" si="6"/>
+        <v>1.3148443225813182</v>
+      </c>
+      <c r="O15" s="13">
+        <f t="shared" si="7"/>
+        <v>1.184238706979915</v>
+      </c>
+      <c r="P15" s="13">
+        <f t="shared" si="8"/>
+        <v>1.0919327382840978</v>
+      </c>
+      <c r="Q15" s="13">
+        <f t="shared" si="9"/>
+        <v>0.98223539659278158</v>
+      </c>
+      <c r="R15" s="13">
+        <f t="shared" si="10"/>
+        <v>1.4012786403766351</v>
+      </c>
+      <c r="S15" s="13">
         <f t="shared" si="1"/>
-        <v>1.5208999999999999</v>
-      </c>
-      <c r="G15" s="13">
-        <f t="shared" si="2"/>
-        <v>1.3231000000000002</v>
-      </c>
-      <c r="H15" s="13">
-        <f t="shared" si="3"/>
-        <v>1.2122000000000002</v>
-      </c>
-      <c r="I15" s="13">
-        <f t="shared" si="4"/>
-        <v>1.0718799999999999</v>
-      </c>
-      <c r="M15" s="13">
-        <f>((A15-$J$2)/($K$2-$J$2))*(($L$2-A15)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
-        <v>0.92134830717117178</v>
-      </c>
-      <c r="N15" s="13">
-        <f t="shared" si="5"/>
-        <v>1.3148443225813182</v>
-      </c>
-      <c r="O15" s="13">
-        <f>C15*$M15</f>
-        <v>1.184238706979915</v>
-      </c>
-      <c r="P15" s="13">
-        <f>D15*$M15</f>
-        <v>1.0919327382840978</v>
-      </c>
-      <c r="Q15" s="13">
-        <f>E15*$M15</f>
-        <v>0.98223539659278158</v>
-      </c>
-      <c r="R15" s="13">
-        <f t="shared" si="6"/>
-        <v>1.4012786403766351</v>
-      </c>
-      <c r="S15" s="13">
-        <f t="shared" si="0"/>
         <v>1.2190359452181776</v>
       </c>
       <c r="T15" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1168584179528946</v>
       </c>
       <c r="U15" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.98757482349063552</v>
       </c>
     </row>
@@ -40427,55 +39934,55 @@
         <v>1.0714519431390537</v>
       </c>
       <c r="F16" s="13">
+        <f t="shared" si="2"/>
+        <v>1.5611000000000002</v>
+      </c>
+      <c r="G16" s="13">
+        <f t="shared" si="3"/>
+        <v>1.3451</v>
+      </c>
+      <c r="H16" s="13">
+        <f t="shared" si="4"/>
+        <v>1.2265999999999999</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="5"/>
+        <v>1.07622</v>
+      </c>
+      <c r="M16" s="13">
+        <f t="shared" si="0"/>
+        <v>0.94957123418425105</v>
+      </c>
+      <c r="N16" s="13">
+        <f t="shared" si="6"/>
+        <v>1.4004584865836662</v>
+      </c>
+      <c r="O16" s="13">
+        <f t="shared" si="7"/>
+        <v>1.2474957691547317</v>
+      </c>
+      <c r="P16" s="13">
+        <f t="shared" si="8"/>
+        <v>1.1413996568249039</v>
+      </c>
+      <c r="Q16" s="13">
+        <f t="shared" si="9"/>
+        <v>1.0174199440156653</v>
+      </c>
+      <c r="R16" s="13">
+        <f t="shared" si="10"/>
+        <v>1.4823756536850345</v>
+      </c>
+      <c r="S16" s="13">
         <f t="shared" si="1"/>
-        <v>1.5611000000000002</v>
-      </c>
-      <c r="G16" s="13">
-        <f t="shared" si="2"/>
-        <v>1.3451</v>
-      </c>
-      <c r="H16" s="13">
-        <f t="shared" si="3"/>
-        <v>1.2265999999999999</v>
-      </c>
-      <c r="I16" s="13">
-        <f t="shared" si="4"/>
-        <v>1.07622</v>
-      </c>
-      <c r="M16" s="13">
-        <f>((A16-$J$2)/($K$2-$J$2))*(($L$2-A16)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
-        <v>0.94957123418425105</v>
-      </c>
-      <c r="N16" s="13">
-        <f t="shared" si="5"/>
-        <v>1.4004584865836662</v>
-      </c>
-      <c r="O16" s="13">
-        <f>C16*$M16</f>
-        <v>1.2474957691547317</v>
-      </c>
-      <c r="P16" s="13">
-        <f>D16*$M16</f>
-        <v>1.1413996568249039</v>
-      </c>
-      <c r="Q16" s="13">
-        <f>E16*$M16</f>
-        <v>1.0174199440156653</v>
-      </c>
-      <c r="R16" s="13">
-        <f t="shared" si="6"/>
-        <v>1.4823756536850345</v>
-      </c>
-      <c r="S16" s="13">
-        <f t="shared" si="0"/>
         <v>1.2772682671012361</v>
       </c>
       <c r="T16" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1647440758504022</v>
       </c>
       <c r="U16" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0219475536537745</v>
       </c>
     </row>
@@ -40496,55 +40003,55 @@
         <v>1.0916540083795037</v>
       </c>
       <c r="F17" s="13">
+        <f t="shared" si="2"/>
+        <v>1.6002999999999998</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="3"/>
+        <v>1.3663000000000001</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" si="4"/>
+        <v>1.2406000000000001</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="5"/>
+        <v>1.0803999999999998</v>
+      </c>
+      <c r="M17" s="13">
+        <f t="shared" si="0"/>
+        <v>0.97158020398905243</v>
+      </c>
+      <c r="N17" s="13">
+        <f t="shared" si="6"/>
+        <v>1.6338501364067983</v>
+      </c>
+      <c r="O17" s="13">
+        <f t="shared" si="7"/>
+        <v>1.3893044965714592</v>
+      </c>
+      <c r="P17" s="13">
+        <f t="shared" si="8"/>
+        <v>1.2323325618158103</v>
+      </c>
+      <c r="Q17" s="13">
+        <f t="shared" si="9"/>
+        <v>1.0606294241468248</v>
+      </c>
+      <c r="R17" s="13">
+        <f t="shared" si="10"/>
+        <v>1.5548198004436804</v>
+      </c>
+      <c r="S17" s="13">
         <f t="shared" si="1"/>
-        <v>1.6002999999999998</v>
-      </c>
-      <c r="G17" s="13">
-        <f t="shared" si="2"/>
-        <v>1.3663000000000001</v>
-      </c>
-      <c r="H17" s="13">
-        <f t="shared" si="3"/>
-        <v>1.2406000000000001</v>
-      </c>
-      <c r="I17" s="13">
-        <f t="shared" si="4"/>
-        <v>1.0803999999999998</v>
-      </c>
-      <c r="M17" s="13">
-        <f>((A17-$J$2)/($K$2-$J$2))*(($L$2-A17)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
-        <v>0.97158020398905243</v>
-      </c>
-      <c r="N17" s="13">
-        <f t="shared" si="5"/>
-        <v>1.6338501364067983</v>
-      </c>
-      <c r="O17" s="13">
-        <f>C17*$M17</f>
-        <v>1.3893044965714592</v>
-      </c>
-      <c r="P17" s="13">
-        <f>D17*$M17</f>
-        <v>1.2323325618158103</v>
-      </c>
-      <c r="Q17" s="13">
-        <f>E17*$M17</f>
-        <v>1.0606294241468248</v>
-      </c>
-      <c r="R17" s="13">
-        <f t="shared" si="6"/>
-        <v>1.5548198004436804</v>
-      </c>
-      <c r="S17" s="13">
-        <f t="shared" si="0"/>
         <v>1.3274700327102424</v>
       </c>
       <c r="T17" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2053424010688185</v>
       </c>
       <c r="U17" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.049695252389772</v>
       </c>
     </row>
@@ -40565,55 +40072,55 @@
         <v>1.0941292121793866</v>
       </c>
       <c r="F18" s="13">
+        <f t="shared" si="2"/>
+        <v>1.6385000000000001</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" si="3"/>
+        <v>1.3867</v>
+      </c>
+      <c r="H18" s="13">
+        <f t="shared" si="4"/>
+        <v>1.2542</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="5"/>
+        <v>1.0844199999999999</v>
+      </c>
+      <c r="M18" s="13">
+        <f t="shared" si="0"/>
+        <v>0.98734416476106102</v>
+      </c>
+      <c r="N18" s="13">
+        <f t="shared" si="6"/>
+        <v>1.6887725635939355</v>
+      </c>
+      <c r="O18" s="13">
+        <f t="shared" si="7"/>
+        <v>1.4269894414649527</v>
+      </c>
+      <c r="P18" s="13">
+        <f t="shared" si="8"/>
+        <v>1.2606783698787316</v>
+      </c>
+      <c r="Q18" s="13">
+        <f t="shared" si="9"/>
+        <v>1.0802820931399342</v>
+      </c>
+      <c r="R18" s="13">
+        <f t="shared" si="10"/>
+        <v>1.6177634139609984</v>
+      </c>
+      <c r="S18" s="13">
         <f t="shared" si="1"/>
-        <v>1.6385000000000001</v>
-      </c>
-      <c r="G18" s="13">
-        <f t="shared" si="2"/>
-        <v>1.3867</v>
-      </c>
-      <c r="H18" s="13">
-        <f t="shared" si="3"/>
-        <v>1.2542</v>
-      </c>
-      <c r="I18" s="13">
-        <f t="shared" si="4"/>
-        <v>1.0844199999999999</v>
-      </c>
-      <c r="M18" s="13">
-        <f>((A18-$J$2)/($K$2-$J$2))*(($L$2-A18)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
-        <v>0.98734416476106102</v>
-      </c>
-      <c r="N18" s="13">
-        <f t="shared" si="5"/>
-        <v>1.6887725635939355</v>
-      </c>
-      <c r="O18" s="13">
-        <f>C18*$M18</f>
-        <v>1.4269894414649527</v>
-      </c>
-      <c r="P18" s="13">
-        <f>D18*$M18</f>
-        <v>1.2606783698787316</v>
-      </c>
-      <c r="Q18" s="13">
-        <f>E18*$M18</f>
-        <v>1.0802820931399342</v>
-      </c>
-      <c r="R18" s="13">
-        <f t="shared" si="6"/>
-        <v>1.6177634139609984</v>
-      </c>
-      <c r="S18" s="13">
-        <f t="shared" si="0"/>
         <v>1.3691501532741635</v>
       </c>
       <c r="T18" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2383270514433227</v>
       </c>
       <c r="U18" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0706957591501898</v>
       </c>
     </row>
@@ -40634,55 +40141,55 @@
         <v>1.0965308414460497</v>
       </c>
       <c r="F19" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6757</v>
       </c>
       <c r="G19" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4063000000000001</v>
       </c>
       <c r="H19" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2674000000000001</v>
       </c>
       <c r="I19" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0882799999999999</v>
       </c>
       <c r="M19" s="13">
-        <f>((A19-$J$2)/($K$2-$J$2))*(($L$2-A19)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
+        <f t="shared" si="0"/>
         <v>0.99682956902871134</v>
       </c>
       <c r="N19" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7336540570338836</v>
       </c>
       <c r="O19" s="13">
-        <f>C19*$M19</f>
+        <f t="shared" si="7"/>
         <v>1.4557816185477588</v>
       </c>
       <c r="P19" s="13">
-        <f>D19*$M19</f>
+        <f t="shared" si="8"/>
         <v>1.2810415045271679</v>
       </c>
       <c r="Q19" s="13">
-        <f>E19*$M19</f>
+        <f t="shared" si="9"/>
         <v>1.093054366105356</v>
       </c>
       <c r="R19" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.6703873088214116</v>
       </c>
       <c r="S19" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.4018414229250769</v>
       </c>
       <c r="T19" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.2633817957869888</v>
       </c>
       <c r="U19" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0848296833825659</v>
       </c>
     </row>
@@ -40703,55 +40210,55 @@
         <v>1.0988554666812143</v>
       </c>
       <c r="F20" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7119</v>
       </c>
       <c r="G20" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4251</v>
       </c>
       <c r="H20" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2802000000000002</v>
       </c>
       <c r="I20" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.09198</v>
       </c>
       <c r="M20" s="15">
-        <f>((A20-$J$2)/($K$2-$J$2))*(($L$2-A20)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N20" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7678047178727812</v>
       </c>
       <c r="O20" s="13">
-        <f>C20*$M20</f>
+        <f t="shared" si="7"/>
         <v>1.4752975576010228</v>
       </c>
       <c r="P20" s="13">
-        <f>D20*$M20</f>
+        <f t="shared" si="8"/>
         <v>1.293196262004688</v>
       </c>
       <c r="Q20" s="15">
-        <f>E20*$M20</f>
+        <f t="shared" si="9"/>
         <v>1.0988554666812143</v>
       </c>
       <c r="R20" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.7119</v>
       </c>
       <c r="S20" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.4251</v>
       </c>
       <c r="T20" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.2802000000000002</v>
       </c>
       <c r="U20" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.09198</v>
       </c>
     </row>
@@ -40772,55 +40279,55 @@
         <v>1.1011003781011028</v>
       </c>
       <c r="F21" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7471000000000001</v>
       </c>
       <c r="G21" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4431000000000003</v>
       </c>
       <c r="H21" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2926000000000002</v>
       </c>
       <c r="I21" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0955199999999998</v>
       </c>
       <c r="M21" s="13">
-        <f>((A21-$J$2)/($K$2-$J$2))*(($L$2-A21)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
+        <f t="shared" si="0"/>
         <v>0.9968157146241825</v>
       </c>
       <c r="N21" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7905288289024559</v>
       </c>
       <c r="O21" s="15">
-        <f>C21*$M21</f>
+        <f t="shared" si="7"/>
         <v>1.4851580624135106</v>
       </c>
       <c r="P21" s="15">
-        <f>D21*$M21</f>
+        <f t="shared" si="8"/>
         <v>1.2969206559030402</v>
       </c>
       <c r="Q21" s="13">
-        <f>E21*$M21</f>
+        <f t="shared" si="9"/>
         <v>1.0975941602698083</v>
       </c>
       <c r="R21" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.7415367350199094</v>
       </c>
       <c r="S21" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.4385047577741581</v>
       </c>
       <c r="T21" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.2884839927232186</v>
       </c>
       <c r="U21" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0920315516850843</v>
       </c>
     </row>
@@ -40841,55 +40348,55 @@
         <v>1.1032635577033445</v>
       </c>
       <c r="F22" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7812999999999999</v>
       </c>
       <c r="G22" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4603000000000002</v>
       </c>
       <c r="H22" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3046</v>
       </c>
       <c r="I22" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0989</v>
       </c>
       <c r="M22" s="16">
-        <f>((A22-$J$2)/($K$2-$J$2))*(($L$2-A22)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
+        <f t="shared" si="0"/>
         <v>0.98723307814798411</v>
       </c>
       <c r="N22" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.801129434672712</v>
       </c>
       <c r="O22" s="13">
-        <f>C22*$M22</f>
+        <f t="shared" si="7"/>
         <v>1.4849897812057185</v>
       </c>
       <c r="P22" s="13">
-        <f>D22*$M22</f>
+        <f t="shared" si="8"/>
         <v>1.2919966629503736</v>
       </c>
       <c r="Q22" s="16">
-        <f>E22*$M22</f>
+        <f t="shared" si="9"/>
         <v>1.0891782780799688</v>
       </c>
       <c r="R22" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.7585582821050041</v>
       </c>
       <c r="S22" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.4416564640195013</v>
       </c>
       <c r="T22" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.28794427375186</v>
       </c>
       <c r="U22" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0848704295768197</v>
       </c>
     </row>
@@ -40910,55 +40417,55 @@
         <v>1.1053436426858749</v>
       </c>
       <c r="F23" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8144999999999998</v>
       </c>
       <c r="G23" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4767000000000001</v>
       </c>
       <c r="H23" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3162</v>
       </c>
       <c r="I23" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1021199999999998</v>
       </c>
       <c r="M23" s="13">
-        <f>((A23-$J$2)/($K$2-$J$2))*(($L$2-A23)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
+        <f t="shared" si="0"/>
         <v>0.97120385500144901</v>
       </c>
       <c r="N23" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7989122618432434</v>
       </c>
       <c r="O23" s="16">
-        <f>C23*$M23</f>
+        <f t="shared" si="7"/>
         <v>1.47442616116032</v>
       </c>
       <c r="P23" s="16">
-        <f>D23*$M23</f>
+        <f t="shared" si="8"/>
         <v>1.2782100255767901</v>
       </c>
       <c r="Q23" s="13">
-        <f>E23*$M23</f>
+        <f t="shared" si="9"/>
         <v>1.0735140068778659</v>
       </c>
       <c r="R23" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.762249394900129</v>
       </c>
       <c r="S23" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.4341767326806398</v>
       </c>
       <c r="T23" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.2782985139529073</v>
       </c>
       <c r="U23" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0703831926741967</v>
       </c>
     </row>
@@ -40979,55 +40486,55 @@
         <v>1.1073398820499549</v>
       </c>
       <c r="F24" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8467</v>
       </c>
       <c r="G24" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4923000000000002</v>
       </c>
       <c r="H24" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3274000000000001</v>
       </c>
       <c r="I24" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1051799999999998</v>
       </c>
       <c r="M24" s="13">
-        <f>((A24-$J$2)/($K$2-$J$2))*(($L$2-A24)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
+        <f t="shared" si="0"/>
         <v>0.94867430600531977</v>
       </c>
       <c r="N24" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7831887489231819</v>
       </c>
       <c r="O24" s="13">
-        <f>C24*$M24</f>
+        <f t="shared" si="7"/>
         <v>1.4531076787241191</v>
       </c>
       <c r="P24" s="13">
-        <f>D24*$M24</f>
+        <f t="shared" si="8"/>
         <v>1.2553495449782506</v>
       </c>
       <c r="Q24" s="13">
-        <f>E24*$M24</f>
+        <f t="shared" si="9"/>
         <v>1.0505048941157535</v>
       </c>
       <c r="R24" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.7519168409000241</v>
       </c>
       <c r="S24" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.4157066668517388</v>
       </c>
       <c r="T24" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.2592702737914616</v>
       </c>
       <c r="U24" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0484558695109591</v>
       </c>
     </row>
@@ -41048,55 +40555,55 @@
         <v>1.1092520881758174</v>
       </c>
       <c r="F25" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8778999999999999</v>
       </c>
       <c r="G25" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5071000000000001</v>
       </c>
       <c r="H25" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3382000000000001</v>
       </c>
       <c r="I25" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.10808</v>
       </c>
       <c r="M25" s="13">
-        <f>((A25-$J$2)/($K$2-$J$2))*(($L$2-A25)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
+        <f t="shared" si="0"/>
         <v>0.9195840191108916</v>
       </c>
       <c r="N25" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7532779236291858</v>
       </c>
       <c r="O25" s="13">
-        <f>C25*$M25</f>
+        <f t="shared" si="7"/>
         <v>1.4206812127640966</v>
       </c>
       <c r="P25" s="13">
-        <f>D25*$M25</f>
+        <f t="shared" si="8"/>
         <v>1.2232057729539501</v>
       </c>
       <c r="Q25" s="13">
-        <f>E25*$M25</f>
+        <f t="shared" si="9"/>
         <v>1.0200504934518673</v>
       </c>
       <c r="R25" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.7268868294883433</v>
       </c>
       <c r="S25" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.3859050752020248</v>
       </c>
       <c r="T25" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.2305873343741951</v>
       </c>
       <c r="U25" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0189726598963966</v>
       </c>
     </row>
@@ -41117,55 +40624,55 @@
         <v>1.1110805850557373</v>
       </c>
       <c r="F26" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9080999999999999</v>
       </c>
       <c r="G26" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5211000000000001</v>
       </c>
       <c r="H26" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3486</v>
       </c>
       <c r="I26" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1108199999999999</v>
       </c>
       <c r="M26" s="13">
-        <f>((A26-$J$2)/($K$2-$J$2))*(($L$2-A26)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
+        <f t="shared" si="0"/>
         <v>0.88386436487673326</v>
       </c>
       <c r="N26" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7085068079990442</v>
       </c>
       <c r="O26" s="13">
-        <f>C26*$M26</f>
+        <f t="shared" si="7"/>
         <v>1.3767983794439755</v>
       </c>
       <c r="P26" s="13">
-        <f>D26*$M26</f>
+        <f t="shared" si="8"/>
         <v>1.1815689654484047</v>
       </c>
       <c r="Q26" s="13">
-        <f>E26*$M26</f>
+        <f t="shared" si="9"/>
         <v>0.98204453563715843</v>
       </c>
       <c r="R26" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.6865015946212947</v>
       </c>
       <c r="S26" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.344446085413999</v>
       </c>
       <c r="T26" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.1919794824727625</v>
       </c>
       <c r="U26" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.98181421379237277</v>
       </c>
     </row>
@@ -41186,55 +40693,55 @@
         <v>1.1128261547204996</v>
       </c>
       <c r="F27" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9373</v>
       </c>
       <c r="G27" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5343</v>
       </c>
       <c r="H27" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3586</v>
       </c>
       <c r="I27" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1133999999999999</v>
       </c>
       <c r="M27" s="13">
-        <f>((A27-$J$2)/($K$2-$J$2))*(($L$2-A27)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
+        <f t="shared" si="0"/>
         <v>0.84143640902126915</v>
       </c>
       <c r="N27" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6482089232597128</v>
       </c>
       <c r="O27" s="13">
-        <f>C27*$M27</f>
+        <f t="shared" si="7"/>
         <v>1.3211125590236268</v>
       </c>
       <c r="P27" s="13">
-        <f>D27*$M27</f>
+        <f t="shared" si="8"/>
         <v>1.1302260818831582</v>
       </c>
       <c r="Q27" s="13">
-        <f>E27*$M27</f>
+        <f t="shared" si="9"/>
         <v>0.93637244349296445</v>
       </c>
       <c r="R27" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.6301147551969049</v>
       </c>
       <c r="S27" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.2910158823613334</v>
       </c>
       <c r="T27" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.1431755052962962</v>
       </c>
       <c r="U27" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.93685529780428101</v>
       </c>
     </row>
@@ -41255,55 +40762,55 @@
         <v>1.1144899832159141</v>
       </c>
       <c r="F28" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9654999999999998</v>
       </c>
       <c r="G28" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5467</v>
       </c>
       <c r="H28" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3682000000000001</v>
       </c>
       <c r="I28" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1158199999999998</v>
       </c>
       <c r="M28" s="13">
-        <f>((A28-$J$2)/($K$2-$J$2))*(($L$2-A28)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
+        <f t="shared" si="0"/>
         <v>0.79220801430162635</v>
       </c>
       <c r="N28" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5717202660038545</v>
       </c>
       <c r="O28" s="13">
-        <f>C28*$M28</f>
+        <f t="shared" si="7"/>
         <v>1.253274184255081</v>
       </c>
       <c r="P28" s="13">
-        <f>D28*$M28</f>
+        <f t="shared" si="8"/>
         <v>1.0689564762413284</v>
       </c>
       <c r="Q28" s="13">
-        <f>E28*$M28</f>
+        <f t="shared" si="9"/>
         <v>0.88290789656253221</v>
       </c>
       <c r="R28" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.5570848521098464</v>
       </c>
       <c r="S28" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.2253081357203255</v>
       </c>
       <c r="T28" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0838990051674853</v>
       </c>
       <c r="U28" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.8839615465180406</v>
       </c>
     </row>
@@ -41324,55 +40831,55 @@
         <v>1.1160736072895976</v>
       </c>
       <c r="F29" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9926999999999999</v>
       </c>
       <c r="G29" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5583</v>
       </c>
       <c r="H29" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3774000000000002</v>
       </c>
       <c r="I29" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.11808</v>
       </c>
       <c r="M29" s="13">
-        <f>((A29-$J$2)/($K$2-$J$2))*(($L$2-A29)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
+        <f t="shared" si="0"/>
         <v>0.73606968573871268</v>
       </c>
       <c r="N29" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4783717510952976</v>
       </c>
       <c r="O29" s="13">
-        <f>C29*$M29</f>
+        <f t="shared" si="7"/>
         <v>1.1729235650514669</v>
       </c>
       <c r="P29" s="13">
-        <f>D29*$M29</f>
+        <f t="shared" si="8"/>
         <v>0.99752567673836923</v>
       </c>
       <c r="Q29" s="13">
-        <f>E29*$M29</f>
+        <f t="shared" si="9"/>
         <v>0.82150794937892557</v>
       </c>
       <c r="R29" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.4667660627715327</v>
       </c>
       <c r="S29" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.1470173912866359</v>
       </c>
       <c r="T29" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.013862385136503</v>
       </c>
       <c r="U29" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.82298479423073989</v>
       </c>
     </row>
@@ -41393,55 +40900,55 @@
         <v>1.1175788627463055</v>
       </c>
       <c r="F30" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0189000000000004</v>
       </c>
       <c r="G30" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5691000000000002</v>
       </c>
       <c r="H30" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3862000000000001</v>
       </c>
       <c r="I30" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.12018</v>
       </c>
       <c r="M30" s="13">
-        <f>((A30-$J$2)/($K$2-$J$2))*(($L$2-A30)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
+        <f t="shared" si="0"/>
         <v>0.67288837777863242</v>
       </c>
       <c r="N30" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3674763881713441</v>
       </c>
       <c r="O30" s="13">
-        <f>C30*$M30</f>
+        <f t="shared" si="7"/>
         <v>1.0796799610469967</v>
       </c>
       <c r="P30" s="13">
-        <f>D30*$M30</f>
+        <f t="shared" si="8"/>
         <v>0.9156761800055192</v>
       </c>
       <c r="Q30" s="13">
-        <f>E30*$M30</f>
+        <f t="shared" si="9"/>
         <v>0.75200582799305038</v>
       </c>
       <c r="R30" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.3584943458972811</v>
       </c>
       <c r="S30" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0558291535724522</v>
       </c>
       <c r="T30" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.93275786927674031</v>
       </c>
       <c r="U30" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.75375610302006846</v>
       </c>
     </row>
@@ -41462,55 +40969,55 @@
         <v>1.1190078352320743</v>
       </c>
       <c r="F31" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0441000000000003</v>
       </c>
       <c r="G31" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5790999999999999</v>
       </c>
       <c r="H31" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3946000000000001</v>
       </c>
       <c r="I31" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1221199999999998</v>
       </c>
       <c r="M31" s="13">
-        <f>((A31-$J$2)/($K$2-$J$2))*(($L$2-A31)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
+        <f t="shared" si="0"/>
         <v>0.60249780659131913</v>
       </c>
       <c r="N31" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2383079713189531</v>
       </c>
       <c r="O31" s="13">
-        <f>C31*$M31</f>
+        <f t="shared" si="7"/>
         <v>0.97312447418629433</v>
       </c>
       <c r="P31" s="13">
-        <f>D31*$M31</f>
+        <f t="shared" si="8"/>
         <v>0.82311323696009087</v>
       </c>
       <c r="Q31" s="13">
-        <f>E31*$M31</f>
+        <f t="shared" si="9"/>
         <v>0.67419976628582501</v>
       </c>
       <c r="R31" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.2315657664533155</v>
       </c>
       <c r="S31" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.95140428638835206</v>
       </c>
       <c r="T31" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.84024344107225368</v>
       </c>
       <c r="U31" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.67607483873225094</v>
       </c>
     </row>
@@ -41531,55 +41038,55 @@
         <v>1.1203628140206618</v>
       </c>
       <c r="F32" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0682999999999998</v>
       </c>
       <c r="G32" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5883000000000003</v>
       </c>
       <c r="H32" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4026000000000001</v>
       </c>
       <c r="I32" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1238999999999999</v>
       </c>
       <c r="M32" s="13">
-        <f>((A32-$J$2)/($K$2-$J$2))*(($L$2-A32)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
+        <f t="shared" si="0"/>
         <v>0.52468233071667469</v>
       </c>
       <c r="N32" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0900647857629331</v>
       </c>
       <c r="O32" s="13">
-        <f>C32*$M32</f>
+        <f t="shared" si="7"/>
         <v>0.85277183438474613</v>
       </c>
       <c r="P32" s="13">
-        <f>D32*$M32</f>
+        <f t="shared" si="8"/>
         <v>0.7194815300697025</v>
       </c>
       <c r="Q32" s="13">
-        <f>E32*$M32</f>
+        <f t="shared" si="9"/>
         <v>0.58783457250865323</v>
       </c>
       <c r="R32" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0852004646212983</v>
       </c>
       <c r="S32" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.83335294587729458</v>
       </c>
       <c r="T32" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.73591943706320795</v>
       </c>
       <c r="U32" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.58969047149247067</v>
       </c>
     </row>
@@ -41600,55 +41107,55 @@
         <v>1.1216462492053472</v>
       </c>
       <c r="F33" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0914999999999999</v>
       </c>
       <c r="G33" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5967000000000002</v>
       </c>
       <c r="H33" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4102000000000001</v>
       </c>
       <c r="I33" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1255199999999999</v>
       </c>
       <c r="M33" s="13">
-        <f>((A33-$J$2)/($K$2-$J$2))*(($L$2-A33)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
+        <f t="shared" si="0"/>
         <v>0.43914784387214489</v>
       </c>
       <c r="N33" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.92180382003895867</v>
       </c>
       <c r="O33" s="13">
-        <f>C33*$M33</f>
+        <f t="shared" si="7"/>
         <v>0.71802004484435322</v>
       </c>
       <c r="P33" s="13">
-        <f>D33*$M33</f>
+        <f t="shared" si="8"/>
         <v>0.60432356659784181</v>
       </c>
       <c r="Q33" s="13">
-        <f>E33*$M33</f>
+        <f t="shared" si="9"/>
         <v>0.49256853192580674</v>
       </c>
       <c r="R33" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.91847771545859103</v>
       </c>
       <c r="S33" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.70118736231065382</v>
       </c>
       <c r="T33" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.61928628942849884</v>
       </c>
       <c r="U33" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.49426968123497644</v>
       </c>
     </row>
@@ -41669,55 +41176,55 @@
         <v>1.1228607125483316</v>
       </c>
       <c r="F34" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1136999999999997</v>
       </c>
       <c r="G34" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6043000000000003</v>
       </c>
       <c r="H34" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4174000000000002</v>
       </c>
       <c r="I34" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1269799999999999</v>
       </c>
       <c r="M34" s="13">
-        <f>((A34-$J$2)/($K$2-$J$2))*(($L$2-A34)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
+        <f t="shared" si="0"/>
         <v>0.34546284367667723</v>
       </c>
       <c r="N34" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.73230824232110991</v>
       </c>
       <c r="O34" s="13">
-        <f>C34*$M34</f>
+        <f t="shared" si="7"/>
         <v>0.56804953450616658</v>
       </c>
       <c r="P34" s="13">
-        <f>D34*$M34</f>
+        <f t="shared" si="8"/>
         <v>0.47699621300843181</v>
       </c>
       <c r="Q34" s="13">
-        <f>E34*$M34</f>
+        <f t="shared" si="9"/>
         <v>0.38790665480976672</v>
       </c>
       <c r="R34" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.73020481267939252</v>
       </c>
       <c r="S34" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.55422604011049337</v>
       </c>
       <c r="T34" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.48965903462732241</v>
       </c>
       <c r="U34" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.38932971556674167</v>
       </c>
     </row>
@@ -41738,55 +41245,55 @@
         <v>1.1240088621103965</v>
       </c>
       <c r="F35" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1349</v>
       </c>
       <c r="G35" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6111</v>
       </c>
       <c r="H35" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4242000000000001</v>
       </c>
       <c r="I35" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1282799999999999</v>
       </c>
       <c r="M35" s="13">
-        <f>((A35-$J$2)/($K$2-$J$2))*(($L$2-A35)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
+        <f t="shared" si="0"/>
         <v>0.24291643217890152</v>
       </c>
       <c r="N35" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51977060285267984</v>
       </c>
       <c r="O35" s="13">
-        <f>C35*$M35</f>
+        <f t="shared" si="7"/>
         <v>0.40158222751721429</v>
       </c>
       <c r="P35" s="13">
-        <f>D35*$M35</f>
+        <f t="shared" si="8"/>
         <v>0.33647085082268563</v>
       </c>
       <c r="Q35" s="13">
-        <f>E35*$M35</f>
+        <f t="shared" si="9"/>
         <v>0.27304022252132443</v>
       </c>
       <c r="R35" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.5186022910587369</v>
       </c>
       <c r="S35" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.39136266388342822</v>
       </c>
       <c r="T35" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.34596158270919158</v>
       </c>
       <c r="U35" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.27407775209881097</v>
       </c>
     </row>
@@ -41807,55 +41314,55 @@
         <v>1.1250934106753725</v>
       </c>
       <c r="F36" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1551</v>
       </c>
       <c r="G36" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6171000000000002</v>
       </c>
       <c r="H36" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4306000000000001</v>
       </c>
       <c r="I36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1294199999999999</v>
       </c>
       <c r="M36" s="13">
-        <f>((A36-$J$2)/($K$2-$J$2))*(($L$2-A36)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
+        <f t="shared" si="0"/>
         <v>0.13005161927403802</v>
       </c>
       <c r="N36" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.28076003959935053</v>
       </c>
       <c r="O36" s="13">
-        <f>C36*$M36</f>
+        <f t="shared" si="7"/>
         <v>0.21609465320704538</v>
       </c>
       <c r="P36" s="13">
-        <f>D36*$M36</f>
+        <f t="shared" si="8"/>
         <v>0.18067931460371772</v>
       </c>
       <c r="Q36" s="13">
-        <f>E36*$M36</f>
+        <f t="shared" si="9"/>
         <v>0.14632021989288244</v>
       </c>
       <c r="R36" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.28027424469747936</v>
       </c>
       <c r="S36" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.21030647352804691</v>
       </c>
       <c r="T36" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.18605184653343881</v>
       </c>
       <c r="U36" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.146882899840484</v>
       </c>
     </row>
@@ -41876,55 +41383,55 @@
         <v>1.1261170978966748</v>
       </c>
       <c r="F37" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1742999999999997</v>
       </c>
       <c r="G37" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6223000000000001</v>
       </c>
       <c r="H37" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4366000000000001</v>
       </c>
       <c r="I37" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1303999999999998</v>
       </c>
       <c r="M37" s="13">
-        <f>((A37-$J$2)/($K$2-$J$2))*(($L$2-A37)/($L$2-$K$2))^(($L$2-$K$2)/($K$2-$J$2))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N37" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="13">
-        <f>C37*$M37</f>
-        <v>0</v>
-      </c>
-      <c r="P37" s="13">
-        <f>D37*$M37</f>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="13">
-        <f>E37*$M37</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O37" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S37" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T37" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U37" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -41945,54 +41452,54 @@
         <v>1.1270826660251934</v>
       </c>
       <c r="F38" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1924999999999999</v>
       </c>
       <c r="G38" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6267</v>
       </c>
       <c r="H38" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4422000000000001</v>
       </c>
       <c r="I38" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1312199999999999</v>
       </c>
       <c r="M38" s="13">
         <v>0</v>
       </c>
       <c r="N38" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="13">
-        <f>C38*$M38</f>
-        <v>0</v>
-      </c>
-      <c r="P38" s="13">
-        <f>D38*$M38</f>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="13">
-        <f>E38*$M38</f>
-        <v>0</v>
-      </c>
-      <c r="R38" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O38" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S38" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T38" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U38" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -42013,54 +41520,54 @@
         <v>1.1279928390272951</v>
       </c>
       <c r="F39" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2096999999999998</v>
       </c>
       <c r="G39" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6303000000000001</v>
       </c>
       <c r="H39" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4474</v>
       </c>
       <c r="I39" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1318799999999998</v>
       </c>
       <c r="M39" s="13">
         <v>0</v>
       </c>
       <c r="N39" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="13">
-        <f>C39*$M39</f>
-        <v>0</v>
-      </c>
-      <c r="P39" s="13">
-        <f>D39*$M39</f>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="13">
-        <f>E39*$M39</f>
-        <v>0</v>
-      </c>
-      <c r="R39" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O39" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S39" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T39" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U39" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -42081,54 +41588,54 @@
         <v>1.1288503048664498</v>
       </c>
       <c r="F40" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2259000000000002</v>
       </c>
       <c r="G40" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6331000000000002</v>
       </c>
       <c r="H40" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4522000000000002</v>
       </c>
       <c r="I40" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1323799999999999</v>
       </c>
       <c r="M40" s="13">
         <v>0</v>
       </c>
       <c r="N40" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="13">
-        <f>C40*$M40</f>
-        <v>0</v>
-      </c>
-      <c r="P40" s="13">
-        <f>D40*$M40</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="13">
-        <f>E40*$M40</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O40" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S40" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T40" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U40" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -42149,54 +41656,54 @@
         <v>1.1296577006997475</v>
       </c>
       <c r="F41" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2411000000000003</v>
       </c>
       <c r="G41" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6351</v>
       </c>
       <c r="H41" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4566000000000001</v>
       </c>
       <c r="I41" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1327199999999999</v>
       </c>
       <c r="M41" s="13">
         <v>0</v>
       </c>
       <c r="N41" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="13">
-        <f>C41*$M41</f>
-        <v>0</v>
-      </c>
-      <c r="P41" s="13">
-        <f>D41*$M41</f>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="13">
-        <f>E41*$M41</f>
-        <v>0</v>
-      </c>
-      <c r="R41" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O41" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S41" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T41" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U41" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -42217,54 +41724,54 @@
         <v>1.130417600729188</v>
       </c>
       <c r="F42" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2552999999999996</v>
       </c>
       <c r="G42" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6363000000000001</v>
       </c>
       <c r="H42" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4606000000000001</v>
       </c>
       <c r="I42" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1328999999999998</v>
       </c>
       <c r="M42" s="13">
         <v>0</v>
       </c>
       <c r="N42" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="13">
-        <f>C42*$M42</f>
-        <v>0</v>
-      </c>
-      <c r="P42" s="13">
-        <f>D42*$M42</f>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="13">
-        <f>E42*$M42</f>
-        <v>0</v>
-      </c>
-      <c r="R42" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O42" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S42" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T42" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U42" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -42285,54 +41792,54 @@
         <v>1.1311325064449413</v>
       </c>
       <c r="F43" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2684999999999995</v>
       </c>
       <c r="G43" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6367000000000003</v>
       </c>
       <c r="H43" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4642000000000002</v>
       </c>
       <c r="I43" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1329199999999999</v>
       </c>
       <c r="M43" s="13">
         <v>0</v>
       </c>
       <c r="N43" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="13">
-        <f>C43*$M43</f>
-        <v>0</v>
-      </c>
-      <c r="P43" s="13">
-        <f>D43*$M43</f>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="13">
-        <f>E43*$M43</f>
-        <v>0</v>
-      </c>
-      <c r="R43" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O43" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S43" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T43" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U43" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -42353,54 +41860,54 @@
         <v>1.1318048390019744</v>
       </c>
       <c r="F44" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2806999999999995</v>
       </c>
       <c r="G44" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6363000000000003</v>
       </c>
       <c r="H44" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4674</v>
       </c>
       <c r="I44" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1327799999999999</v>
       </c>
       <c r="M44" s="13">
         <v>0</v>
       </c>
       <c r="N44" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="13">
-        <f>C44*$M44</f>
-        <v>0</v>
-      </c>
-      <c r="P44" s="13">
-        <f>D44*$M44</f>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="13">
-        <f>E44*$M44</f>
-        <v>0</v>
-      </c>
-      <c r="R44" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O44" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S44" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T44" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U44" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -42421,54 +41928,54 @@
         <v>1.1324369334808082</v>
       </c>
       <c r="F45" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2919</v>
       </c>
       <c r="G45" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6351</v>
       </c>
       <c r="H45" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4702000000000002</v>
       </c>
       <c r="I45" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1324799999999999</v>
       </c>
       <c r="M45" s="13">
         <v>0</v>
       </c>
       <c r="N45" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O45" s="13">
-        <f>C45*$M45</f>
-        <v>0</v>
-      </c>
-      <c r="P45" s="13">
-        <f>D45*$M45</f>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="13">
-        <f>E45*$M45</f>
-        <v>0</v>
-      </c>
-      <c r="R45" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O45" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S45" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T45" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U45" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -42489,54 +41996,54 @@
         <v>1.1330310347962775</v>
       </c>
       <c r="F46" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3021000000000003</v>
       </c>
       <c r="G46" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6331</v>
       </c>
       <c r="H46" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4726000000000001</v>
       </c>
       <c r="I46" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1320199999999998</v>
       </c>
       <c r="M46" s="13">
         <v>0</v>
       </c>
       <c r="N46" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="13">
-        <f>C46*$M46</f>
-        <v>0</v>
-      </c>
-      <c r="P46" s="13">
-        <f>D46*$M46</f>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="13">
-        <f>E46*$M46</f>
-        <v>0</v>
-      </c>
-      <c r="R46" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O46" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S46" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T46" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U46" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -42557,54 +42064,54 @@
         <v>1.1335892950338029</v>
       </c>
       <c r="F47" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3113000000000001</v>
       </c>
       <c r="G47" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6303000000000001</v>
       </c>
       <c r="H47" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4746000000000001</v>
       </c>
       <c r="I47" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1314</v>
       </c>
       <c r="M47" s="13">
         <v>0</v>
       </c>
       <c r="N47" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="13">
-        <f>C47*$M47</f>
-        <v>0</v>
-      </c>
-      <c r="P47" s="13">
-        <f>D47*$M47</f>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="13">
-        <f>E47*$M47</f>
-        <v>0</v>
-      </c>
-      <c r="R47" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O47" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S47" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T47" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U47" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -57707,8 +57214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView topLeftCell="L16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView topLeftCell="J7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57737,7 +57244,7 @@
         <v>13</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s">
         <v>35</v>

--- a/software/3D-CMCC-Forest-Model/tables/CO2_mod_assimilation.xlsx
+++ b/software/3D-CMCC-Forest-Model/tables/CO2_mod_assimilation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="9270" windowHeight="3615" tabRatio="754" firstSheet="6" activeTab="16"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="9270" windowHeight="3615" tabRatio="754" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Fco2 8.5" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
     <t>fCO2 * fT (RCP 8.5)</t>
   </si>
   <si>
-    <t>fCO2 * fT (HistRep)</t>
+    <t>fCO2 * fT (Control)</t>
   </si>
 </sst>
 </file>
@@ -1343,25 +1343,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113489408"/>
-        <c:axId val="113490944"/>
+        <c:axId val="127838464"/>
+        <c:axId val="128149376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113489408"/>
+        <c:axId val="127838464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113490944"/>
+        <c:crossAx val="128149376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113490944"/>
+        <c:axId val="128149376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,7 +1369,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113489408"/>
+        <c:crossAx val="127838464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1381,7 +1381,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1420,7 +1420,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-8.3873140857392864E-2"/>
-                  <c:y val="0.48100685331000337"/>
+                  <c:y val="0.48100685331000342"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1595,7 +1595,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.1095363079615221E-2"/>
+                  <c:x val="-8.1095363079615235E-2"/>
                   <c:y val="0.3450182268883058"/>
                 </c:manualLayout>
               </c:layout>
@@ -1771,8 +1771,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.1095363079615221E-2"/>
-                  <c:y val="0.32103127734033271"/>
+                  <c:x val="-8.1095363079615235E-2"/>
+                  <c:y val="0.32103127734033277"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1948,7 +1948,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-9.1428696412948332E-2"/>
-                  <c:y val="0.28656022163896205"/>
+                  <c:y val="0.28656022163896211"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2100,24 +2100,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58518912"/>
-        <c:axId val="58520704"/>
+        <c:axId val="138813440"/>
+        <c:axId val="138814976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58518912"/>
+        <c:axId val="138813440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58520704"/>
+        <c:crossAx val="138814976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58520704"/>
+        <c:axId val="138814976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,7 +2125,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58518912"/>
+        <c:crossAx val="138813440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2138,7 +2138,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2157,7 +2157,7 @@
           <c:x val="0.11290507436570428"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.53881671041119861"/>
-          <c:h val="0.81873067949839673"/>
+          <c:h val="0.81873067949839684"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2392,7 +2392,7 @@
               <c:idx val="19"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.6666666666666677E-2"/>
+                  <c:x val="-1.666666666666668E-2"/>
                   <c:y val="-5.0925925925925923E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -2582,8 +2582,8 @@
               <c:idx val="19"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.6111111111111129E-2"/>
-                  <c:y val="-3.2407407407407426E-2"/>
+                  <c:x val="-3.6111111111111135E-2"/>
+                  <c:y val="-3.2407407407407433E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2772,8 +2772,8 @@
               <c:idx val="18"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.6111111111111129E-2"/>
-                  <c:y val="-2.7777777777777853E-2"/>
+                  <c:x val="-3.6111111111111135E-2"/>
+                  <c:y val="-2.7777777777777863E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2923,8 +2923,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="140760960"/>
-        <c:axId val="140652544"/>
+        <c:axId val="138963200"/>
+        <c:axId val="138969472"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2937,7 +2937,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>fCO2 * fT (HistRep)</c:v>
+                  <c:v>fCO2 * fT (Control)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2968,8 +2968,8 @@
               <c:idx val="19"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.5555555555555518E-2"/>
-                  <c:y val="2.7777777777777811E-2"/>
+                  <c:x val="-5.5555555555555504E-2"/>
+                  <c:y val="2.7777777777777821E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3268,11 +3268,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="140656000"/>
-        <c:axId val="140654464"/>
+        <c:axId val="138985472"/>
+        <c:axId val="138971392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140760960"/>
+        <c:axId val="138963200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3323,7 +3323,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140652544"/>
+        <c:crossAx val="138969472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3332,7 +3332,7 @@
         <c:tickMarkSkip val="5"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140652544"/>
+        <c:axId val="138969472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3384,7 +3384,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.7777777777777822E-3"/>
+              <c:x val="2.7777777777777835E-3"/>
               <c:y val="0.36409922717993587"/>
             </c:manualLayout>
           </c:layout>
@@ -3412,13 +3412,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140760960"/>
+        <c:crossAx val="138963200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.30000000000000021"/>
+        <c:majorUnit val="0.30000000000000027"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140654464"/>
+        <c:axId val="138971392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.1"/>
@@ -3434,13 +3434,13 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="140656000"/>
+        <c:crossAx val="138985472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.30000000000000021"/>
+        <c:majorUnit val="0.30000000000000027"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="140656000"/>
+        <c:axId val="138985472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3455,7 +3455,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="140654464"/>
+        <c:crossAx val="138971392"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3490,7 +3490,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -7257,31 +7257,31 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113605632"/>
-        <c:axId val="113612672"/>
+        <c:axId val="128063360"/>
+        <c:axId val="128064896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113605632"/>
+        <c:axId val="128063360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113612672"/>
+        <c:crossAx val="128064896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113612672"/>
+        <c:axId val="128064896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113605632"/>
+        <c:crossAx val="128063360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7294,7 +7294,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7311,10 +7311,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13903807068672272"/>
-          <c:y val="9.2951662292213577E-2"/>
+          <c:x val="0.13903807068672275"/>
+          <c:y val="9.2951662292213591E-2"/>
           <c:w val="0.80905891213466563"/>
-          <c:h val="0.7490547535724712"/>
+          <c:h val="0.74905475357247142"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -9321,8 +9321,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="115931008"/>
-        <c:axId val="116806784"/>
+        <c:axId val="138067328"/>
+        <c:axId val="138077696"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9994,11 +9994,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="118151808"/>
-        <c:axId val="118149888"/>
+        <c:axId val="137958528"/>
+        <c:axId val="138079616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115931008"/>
+        <c:axId val="138067328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10050,7 +10050,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116806784"/>
+        <c:crossAx val="138077696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10059,7 +10059,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116806784"/>
+        <c:axId val="138077696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.6"/>
@@ -10106,7 +10106,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.9907842530435425E-3"/>
+              <c:x val="1.9907842530435429E-3"/>
               <c:y val="0.35421515018955962"/>
             </c:manualLayout>
           </c:layout>
@@ -10134,13 +10134,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115931008"/>
+        <c:crossAx val="138067328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.30000000000000032"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118149888"/>
+        <c:axId val="138079616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.6"/>
@@ -10157,13 +10157,13 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="118151808"/>
+        <c:crossAx val="137958528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.30000000000000027"/>
+        <c:majorUnit val="0.30000000000000032"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="118151808"/>
+        <c:axId val="137958528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10178,7 +10178,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="118149888"/>
+        <c:crossAx val="138079616"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10196,7 +10196,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -10214,10 +10214,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11846062992126009"/>
+          <c:x val="0.11846062992126011"/>
           <c:y val="0.12535906969962088"/>
-          <c:w val="0.60677974628171583"/>
-          <c:h val="0.75866105278506923"/>
+          <c:w val="0.60677974628171594"/>
+          <c:h val="0.75866105278506935"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -12230,8 +12230,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="110790144"/>
-        <c:axId val="110791680"/>
+        <c:axId val="138000256"/>
+        <c:axId val="138001792"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12905,11 +12905,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="110807680"/>
-        <c:axId val="110806144"/>
+        <c:axId val="138013696"/>
+        <c:axId val="138012160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110790144"/>
+        <c:axId val="138000256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12923,7 +12923,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="110791680"/>
+        <c:crossAx val="138001792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12932,7 +12932,7 @@
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110791680"/>
+        <c:axId val="138001792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000032"/>
@@ -12959,7 +12959,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="8.3333333333333367E-3"/>
-              <c:y val="0.37967811315252314"/>
+              <c:y val="0.37967811315252326"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -12973,17 +12973,17 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="110790144"/>
+        <c:crossAx val="138000256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110806144"/>
+        <c:axId val="138012160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
-          <c:min val="0.30000000000000016"/>
+          <c:min val="0.30000000000000021"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -12996,13 +12996,13 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="110807680"/>
+        <c:crossAx val="138013696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="110807680"/>
+        <c:axId val="138013696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13016,7 +13016,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="110806144"/>
+        <c:crossAx val="138012160"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13038,7 +13038,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13055,9 +13055,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14093373881701754"/>
+          <c:x val="0.14093373881701757"/>
           <c:y val="9.7581291921843102E-2"/>
-          <c:w val="0.82491937448854868"/>
+          <c:w val="0.8249193744885488"/>
           <c:h val="0.74477216389617962"/>
         </c:manualLayout>
       </c:layout>
@@ -14030,8 +14030,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="140117120"/>
-        <c:axId val="140119040"/>
+        <c:axId val="138155520"/>
+        <c:axId val="138157440"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14358,11 +14358,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="140130944"/>
-        <c:axId val="140129408"/>
+        <c:axId val="138169344"/>
+        <c:axId val="138167808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140117120"/>
+        <c:axId val="138155520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14414,7 +14414,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140119040"/>
+        <c:crossAx val="138157440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14423,7 +14423,7 @@
         <c:tickMarkSkip val="5"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140119040"/>
+        <c:axId val="138157440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.6"/>
@@ -14470,8 +14470,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.7969730144960302E-3"/>
-              <c:y val="0.35207385535141461"/>
+              <c:x val="2.7969730144960306E-3"/>
+              <c:y val="0.35207385535141467"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -14498,13 +14498,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140117120"/>
+        <c:crossAx val="138155520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.30000000000000027"/>
+        <c:majorUnit val="0.30000000000000032"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140129408"/>
+        <c:axId val="138167808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.6"/>
@@ -14521,13 +14521,13 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="140130944"/>
+        <c:crossAx val="138169344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.30000000000000027"/>
+        <c:majorUnit val="0.30000000000000032"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="140130944"/>
+        <c:axId val="138169344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14542,7 +14542,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="140129408"/>
+        <c:crossAx val="138167808"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14560,7 +14560,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -16484,24 +16484,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="140148096"/>
-        <c:axId val="140162176"/>
+        <c:axId val="138207232"/>
+        <c:axId val="138208768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140148096"/>
+        <c:axId val="138207232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140162176"/>
+        <c:crossAx val="138208768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140162176"/>
+        <c:axId val="138208768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16509,19 +16509,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140148096"/>
+        <c:crossAx val="138207232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -16531,7 +16532,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -16699,24 +16702,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="140285056"/>
-        <c:axId val="140286592"/>
+        <c:axId val="138372608"/>
+        <c:axId val="138374144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140285056"/>
+        <c:axId val="138372608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140286592"/>
+        <c:crossAx val="138374144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140286592"/>
+        <c:axId val="138374144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16724,19 +16727,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140285056"/>
+        <c:crossAx val="138372608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -16767,6 +16771,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -16777,7 +16782,7 @@
           <c:x val="0.13885825799675508"/>
           <c:y val="0.19480351414406533"/>
           <c:w val="0.55041367671352592"/>
-          <c:h val="0.68921660834062393"/>
+          <c:h val="0.68921660834062382"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -18075,11 +18080,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="140448512"/>
-        <c:axId val="140450048"/>
+        <c:axId val="138286208"/>
+        <c:axId val="138287744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140448512"/>
+        <c:axId val="138286208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18097,7 +18102,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140450048"/>
+        <c:crossAx val="138287744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18106,7 +18111,7 @@
         <c:tickMarkSkip val="5"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140450048"/>
+        <c:axId val="138287744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -18128,11 +18133,12 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140448512"/>
+        <c:crossAx val="138286208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18143,10 +18149,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.63823951030508375"/>
+          <c:x val="0.63823951030508386"/>
           <c:y val="2.3869568387284931E-2"/>
-          <c:w val="0.34497865160794083"/>
-          <c:h val="0.6697375328084002"/>
+          <c:w val="0.34497865160794094"/>
+          <c:h val="0.66973753280840043"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -18159,7 +18165,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -18200,7 +18206,7 @@
                   <c:v>9.2365704660169107E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18064128360710077</c:v>
+                  <c:v>0.18064128360710083</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.26478007357174982</c:v>
@@ -18209,19 +18215,19 @@
                   <c:v>0.3447329706020868</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42044820762685764</c:v>
+                  <c:v>0.42044820762685775</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49187110296247866</c:v>
+                  <c:v>0.49187110296247877</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.55894377476921331</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.62160481538672518</c:v>
+                  <c:v>0.62160481538672541</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67978891812111675</c:v>
+                  <c:v>0.67978891812111686</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.7334264473278278</c:v>
@@ -18239,7 +18245,7 @@
                   <c:v>0.90093626092041956</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.93060485910210022</c:v>
+                  <c:v>0.93060485910210033</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.9551833496505987</c:v>
@@ -18248,7 +18254,7 @@
                   <c:v>0.97455164804845462</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.98857757847701733</c:v>
+                  <c:v>0.98857757847701722</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.99711476677448452</c:v>
@@ -18260,25 +18266,25 @@
                   <c:v>0.99704987076304064</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.98805644438066209</c:v>
+                  <c:v>0.98805644438066198</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97278156236531943</c:v>
+                  <c:v>0.97278156236531954</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95094919608674455</c:v>
+                  <c:v>0.95094919608674466</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.9222349330836016</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.88625110584464895</c:v>
+                  <c:v>0.88625110584464872</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.84252503495545772</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.79046586688263332</c:v>
+                  <c:v>0.79046586688263321</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.7293113892161025</c:v>
@@ -18290,10 +18296,10 @@
                   <c:v>0.57518592130083979</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.47851160999079101</c:v>
+                  <c:v>0.47851160999079106</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.36407260116115647</c:v>
+                  <c:v>0.36407260116115653</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.2230388294100821</c:v>
@@ -18359,13 +18365,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>0.10021417393114176</c:v>
+                  <c:v>0.10021417393114178</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.19853073939348898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29526175539994948</c:v>
+                  <c:v>0.29526175539994953</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.39073661752750588</c:v>
@@ -18383,13 +18389,13 @@
                   <c:v>0.7665795583972147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.86037268582620741</c:v>
+                  <c:v>0.8603726858262073</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.95438753848767544</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0485613487076619</c:v>
+                  <c:v>1.0485613487076617</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.1426634088476042</c:v>
@@ -18404,7 +18410,7 @@
                   <c:v>1.5649442729917202</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.633764083147291</c:v>
+                  <c:v>1.6337640831472908</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.6949090104485021</c:v>
@@ -18416,10 +18422,10 @@
                   <c:v>1.7910660009078778</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8244216837340668</c:v>
+                  <c:v>1.8244216837340665</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8467855424463688</c:v>
+                  <c:v>1.8467855424463691</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1.8572139287081761</c:v>
@@ -18440,10 +18446,10 @@
                   <c:v>1.6921838181920101</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.60642306259747</c:v>
+                  <c:v>1.6064230625974698</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.498946713099969</c:v>
+                  <c:v>1.4989467130999687</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.3671185906124033</c:v>
@@ -18455,7 +18461,7 @@
                   <c:v>1.0143435175638187</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.77900961120782308</c:v>
+                  <c:v>0.7790096112078233</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.48150412064779452</c:v>
@@ -18521,7 +18527,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>9.8062466940922757E-2</c:v>
+                  <c:v>9.8062466940922785E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.19358025964333125</c:v>
@@ -18530,10 +18536,10 @@
                   <c:v>0.28673773311675776</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37772036567652056</c:v>
+                  <c:v>0.37772036567652062</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46670502458363178</c:v>
+                  <c:v>0.46670502458363172</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.55384761090795187</c:v>
@@ -18545,13 +18551,13 @@
                   <c:v>0.72303410068956275</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80514166947809296</c:v>
+                  <c:v>0.80514166947809318</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.88549805143579763</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.96390445481151343</c:v>
+                  <c:v>0.96390445481151354</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.0400427182385021</c:v>
@@ -18566,10 +18572,10 @@
                   <c:v>1.3307120811781841</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3805080368752563</c:v>
+                  <c:v>1.3805080368752565</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4232466809113082</c:v>
+                  <c:v>1.423246680911308</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.4584460870262779</c:v>
@@ -18578,7 +18584,7 @@
                   <c:v>1.4856036209110217</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5041937046837108</c:v>
+                  <c:v>1.5041937046837111</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1.5136641044658432</c:v>
@@ -18590,34 +18596,34 @@
                   <c:v>1.5028670149269521</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4812966379613846</c:v>
+                  <c:v>1.4812966379613843</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4479717533072201</c:v>
+                  <c:v>1.4479717533072196</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1.4020504863255789</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3425596608469239</c:v>
+                  <c:v>1.3425596608469241</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2683383820393328</c:v>
+                  <c:v>1.2683383820393326</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1779474620235439</c:v>
+                  <c:v>1.1779474620235442</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.0695146229515704</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.94044642771036868</c:v>
+                  <c:v>0.94044642771036857</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.78682353916319625</c:v>
+                  <c:v>0.78682353916319636</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.60187400597340979</c:v>
+                  <c:v>0.6018740059734099</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.37060283264538046</c:v>
@@ -18689,10 +18695,10 @@
                   <c:v>0.18955765602267871</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27986186582092665</c:v>
+                  <c:v>0.27986186582092676</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36730731947426015</c:v>
+                  <c:v>0.36730731947426026</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.45197312127122591</c:v>
@@ -18716,7 +18722,7 @@
                   <c:v>0.90193334012542559</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.96619646915857571</c:v>
+                  <c:v>0.96619646915857582</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.0266773191772665</c:v>
@@ -18737,7 +18743,7 @@
                   <c:v>1.2784248291881255</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2973097417744084</c:v>
+                  <c:v>1.2973097417744082</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1.3087047947928518</c:v>
@@ -18749,19 +18755,19 @@
                   <c:v>1.3074626349784766</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2939677051574874</c:v>
+                  <c:v>1.2939677051574872</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1.2712494161600338</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2387554945563437</c:v>
+                  <c:v>1.2387554945563439</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1.1958524050073249</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.1417945500900533</c:v>
+                  <c:v>1.141794550090053</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1.075677317835859</c:v>
@@ -18776,13 +18782,13 @@
                   <c:v>0.791529350007671</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.66070267765119073</c:v>
+                  <c:v>0.66070267765119095</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.50428790170812499</c:v>
+                  <c:v>0.50428790170812487</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.30986544460407117</c:v>
+                  <c:v>0.30986544460407123</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
@@ -18845,19 +18851,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>9.3888750592002732E-2</c:v>
+                  <c:v>9.3888750592002745E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18407696146349506</c:v>
+                  <c:v>0.18407696146349509</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.270565668816864</c:v>
+                  <c:v>0.27056566881686406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35334998576091337</c:v>
+                  <c:v>0.35334998576091342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43241586213369743</c:v>
+                  <c:v>0.43241586213369754</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.50773644019627351</c:v>
@@ -18866,7 +18872,7 @@
                   <c:v>0.57926820452287275</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.64694720625591307</c:v>
+                  <c:v>0.64694720625591329</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.71068570411516863</c:v>
@@ -18881,16 +18887,16 @@
                   <c:v>0.87697777903432705</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.92353564319318204</c:v>
+                  <c:v>0.92353564319318215</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.96530990740761735</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0158985246562515</c:v>
+                  <c:v>1.0158985246562517</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0450940058400759</c:v>
+                  <c:v>1.0450940058400757</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.0686259386672061</c:v>
@@ -18905,7 +18911,7 @@
                   <c:v>1.1032635577033438</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1020827360887024</c:v>
+                  <c:v>1.1020827360887029</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1.094114306579181</c:v>
@@ -18914,10 +18920,10 @@
                   <c:v>1.0790599793926641</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0565811891463437</c:v>
+                  <c:v>1.0565811891463439</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0262871543323424</c:v>
+                  <c:v>1.0262871543323426</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.98771798007788858</c:v>
@@ -18932,10 +18938,10 @@
                   <c:v>0.81610515885680768</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.73724019230546023</c:v>
+                  <c:v>0.73724019230546034</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.64515513122280954</c:v>
+                  <c:v>0.64515513122280965</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.53730188735690854</c:v>
@@ -18984,11 +18990,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="140638848"/>
-        <c:axId val="58471168"/>
+        <c:axId val="138742784"/>
+        <c:axId val="138753152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140638848"/>
+        <c:axId val="138742784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19013,7 +19019,7 @@
         </c:title>
         <c:majorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58471168"/>
+        <c:crossAx val="138753152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19022,7 +19028,7 @@
         <c:tickMarkSkip val="3"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58471168"/>
+        <c:axId val="138753152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19048,7 +19054,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140638848"/>
+        <c:crossAx val="138742784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19061,7 +19067,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -38891,8 +38897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57214,7 +57220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView topLeftCell="J7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
